--- a/Metamind_data_for_shared/figures_metadata.xlsx
+++ b/Metamind_data_for_shared/figures_metadata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF539D7B-E8D4-4491-808E-9DF622B4C2D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B8B539-287F-4270-9F28-99CACA788140}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="8" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="11" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fig2i" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,11 @@
     <sheet name="fig5l" sheetId="24" r:id="rId17"/>
     <sheet name="fig5m" sheetId="25" r:id="rId18"/>
     <sheet name="fig5n" sheetId="26" r:id="rId19"/>
-    <sheet name="figS1" sheetId="9" r:id="rId20"/>
-    <sheet name="figS2" sheetId="16" r:id="rId21"/>
-    <sheet name="figS4a" sheetId="12" r:id="rId22"/>
-    <sheet name="figS4b" sheetId="13" r:id="rId23"/>
+    <sheet name="fig5_Sp" sheetId="27" r:id="rId20"/>
+    <sheet name="figS1" sheetId="9" r:id="rId21"/>
+    <sheet name="figS2" sheetId="16" r:id="rId22"/>
+    <sheet name="figS4a" sheetId="12" r:id="rId23"/>
+    <sheet name="figS4b" sheetId="13" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="96">
   <si>
     <t>difficulty beta</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -366,6 +367,50 @@
   </si>
   <si>
     <t>PS-DI dACC activity</t>
+  </si>
+  <si>
+    <t>mean uncertainty with difficulies in correct trials</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean uncertainty with difficulies in wrong trials</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean RT with difficulies in correct trials</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean RT with difficulies in wrong trials</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beta value of quadratic equation fit for fig5a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beta value of quadratic equation fit for fig5b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beta value of quadratic equation fit for fig5d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beta value of quadratic equation fit for fig5g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beta value of quadratic equation fit for fig5h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beta value of quadratic equation fit for fig5j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beta value of quadratic equation fit for fig5k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3242,7 +3287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B1390D-495A-49B6-9709-15E8B184A880}">
   <dimension ref="A1:AR32"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AE35" sqref="AE35"/>
     </sheetView>
   </sheetViews>
@@ -22294,7 +22339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC1BA24-2187-488C-987F-DA6943B39D07}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
@@ -26550,16 +26595,3283 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90FC3682-12E5-4BAC-81A0-F9C34F626791}">
-  <dimension ref="A1:I29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED1224C-3BB9-4834-ABE8-F0BD5C0ACD16}">
+  <dimension ref="A1:AO32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AO3" sqref="AO3:AO30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="M1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="S1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="Y1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AE1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AK1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-0.212423319969299</v>
+      </c>
+      <c r="B3">
+        <v>0.47953577120258001</v>
+      </c>
+      <c r="C3">
+        <v>-0.912695544765461</v>
+      </c>
+      <c r="D3">
+        <v>-1.4101777171737799</v>
+      </c>
+      <c r="E3">
+        <v>-1.3185119718978899</v>
+      </c>
+      <c r="G3">
+        <v>-0.153723140863777</v>
+      </c>
+      <c r="H3">
+        <v>2.1848948805621899E-2</v>
+      </c>
+      <c r="I3">
+        <v>-0.51265319055556002</v>
+      </c>
+      <c r="J3">
+        <v>-0.62326929867821601</v>
+      </c>
+      <c r="K3">
+        <v>-0.92332802496787003</v>
+      </c>
+      <c r="M3">
+        <v>-0.35984530259342601</v>
+      </c>
+      <c r="N3">
+        <v>-1.0307099850122201</v>
+      </c>
+      <c r="O3">
+        <v>-0.97833838219354696</v>
+      </c>
+      <c r="P3">
+        <v>-1.0287223834292301</v>
+      </c>
+      <c r="Q3">
+        <v>-1.1051182075008701</v>
+      </c>
+      <c r="S3">
+        <v>-0.16676510045064499</v>
+      </c>
+      <c r="T3">
+        <v>0.245270167425547</v>
+      </c>
+      <c r="U3">
+        <v>-0.77398698550677403</v>
+      </c>
+      <c r="V3">
+        <v>-0.58586902233904403</v>
+      </c>
+      <c r="W3">
+        <v>-0.80197308732123795</v>
+      </c>
+      <c r="Y3">
+        <v>-0.112350901610105</v>
+      </c>
+      <c r="Z3">
+        <v>-0.44456669370930202</v>
+      </c>
+      <c r="AA3">
+        <v>-0.854194483244896</v>
+      </c>
+      <c r="AB3">
+        <v>-0.79191106320949201</v>
+      </c>
+      <c r="AC3">
+        <v>-0.80806697948704098</v>
+      </c>
+      <c r="AE3">
+        <v>-1.6753503397925699E-2</v>
+      </c>
+      <c r="AF3">
+        <v>0.63474377918841896</v>
+      </c>
+      <c r="AG3">
+        <v>-0.74899433730116305</v>
+      </c>
+      <c r="AH3">
+        <v>-0.31901094911742001</v>
+      </c>
+      <c r="AI3">
+        <v>-0.33596177421015699</v>
+      </c>
+      <c r="AK3">
+        <v>0.198233124278928</v>
+      </c>
+      <c r="AL3">
+        <v>-0.62713411191201096</v>
+      </c>
+      <c r="AM3">
+        <v>0.44854565481320002</v>
+      </c>
+      <c r="AN3">
+        <v>0.114978676477712</v>
+      </c>
+      <c r="AO3">
+        <v>-0.55916666330201004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-1.0678791542355299</v>
+      </c>
+      <c r="B4">
+        <v>-1.0805801951874701</v>
+      </c>
+      <c r="C4">
+        <v>-0.84066881695631901</v>
+      </c>
+      <c r="D4">
+        <v>-0.763846868590628</v>
+      </c>
+      <c r="E4">
+        <v>-1.36754861337234</v>
+      </c>
+      <c r="G4">
+        <v>-0.36904043439076201</v>
+      </c>
+      <c r="H4">
+        <v>-0.20671396855723301</v>
+      </c>
+      <c r="I4">
+        <v>-0.96184145261256104</v>
+      </c>
+      <c r="J4">
+        <v>-0.27302689407883801</v>
+      </c>
+      <c r="K4">
+        <v>-0.53725186659718804</v>
+      </c>
+      <c r="M4">
+        <v>-0.91741573878749905</v>
+      </c>
+      <c r="N4">
+        <v>-0.94556155548210896</v>
+      </c>
+      <c r="O4">
+        <v>-1.03863400888991</v>
+      </c>
+      <c r="P4">
+        <v>-0.82499155077984998</v>
+      </c>
+      <c r="Q4">
+        <v>-1.1212148574778</v>
+      </c>
+      <c r="S4">
+        <v>-0.78593095885557096</v>
+      </c>
+      <c r="T4">
+        <v>-0.86180770362969406</v>
+      </c>
+      <c r="U4">
+        <v>-0.95757334261459803</v>
+      </c>
+      <c r="V4">
+        <v>-0.50205099240881301</v>
+      </c>
+      <c r="W4">
+        <v>-0.67242691657829601</v>
+      </c>
+      <c r="Y4">
+        <v>-0.195111875650893</v>
+      </c>
+      <c r="Z4">
+        <v>-0.31605127606810601</v>
+      </c>
+      <c r="AA4">
+        <v>0.97523447964225796</v>
+      </c>
+      <c r="AB4">
+        <v>-0.340126243220508</v>
+      </c>
+      <c r="AC4">
+        <v>-0.72985081223550397</v>
+      </c>
+      <c r="AE4">
+        <v>-0.82466071729455503</v>
+      </c>
+      <c r="AF4">
+        <v>-0.84745617933224404</v>
+      </c>
+      <c r="AG4">
+        <v>-0.92776508853402995</v>
+      </c>
+      <c r="AH4">
+        <v>-0.67278542261794805</v>
+      </c>
+      <c r="AI4">
+        <v>-0.76120734074799901</v>
+      </c>
+      <c r="AK4">
+        <v>0.46649776088044498</v>
+      </c>
+      <c r="AL4">
+        <v>0.55077092026309005</v>
+      </c>
+      <c r="AM4">
+        <v>-0.14517270880938399</v>
+      </c>
+      <c r="AN4">
+        <v>-3.4036702666241599E-2</v>
+      </c>
+      <c r="AO4">
+        <v>0.34921011013944098</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-1.1838785824936799</v>
+      </c>
+      <c r="B5">
+        <v>-0.92931050450975405</v>
+      </c>
+      <c r="C5">
+        <v>-1.40716584857751</v>
+      </c>
+      <c r="D5">
+        <v>-0.67153499517661797</v>
+      </c>
+      <c r="E5">
+        <v>-0.83924929387033997</v>
+      </c>
+      <c r="G5">
+        <v>3.5451417730935901E-2</v>
+      </c>
+      <c r="H5">
+        <v>-0.89028075428701403</v>
+      </c>
+      <c r="I5">
+        <v>-1.0853065833534901</v>
+      </c>
+      <c r="J5">
+        <v>-0.29039876319168201</v>
+      </c>
+      <c r="K5">
+        <v>-0.11170403603893</v>
+      </c>
+      <c r="M5">
+        <v>-1.01407985547686</v>
+      </c>
+      <c r="N5">
+        <v>-1.1465331298283901</v>
+      </c>
+      <c r="O5">
+        <v>-1.0874843581020599</v>
+      </c>
+      <c r="P5">
+        <v>-0.95366206007333398</v>
+      </c>
+      <c r="Q5">
+        <v>-0.97873397641708704</v>
+      </c>
+      <c r="S5">
+        <v>-0.72326560548446805</v>
+      </c>
+      <c r="T5">
+        <v>-0.74465074359386196</v>
+      </c>
+      <c r="U5">
+        <v>-0.84262083202127203</v>
+      </c>
+      <c r="V5">
+        <v>6.1525842556185498E-2</v>
+      </c>
+      <c r="W5">
+        <v>-0.12312689048469</v>
+      </c>
+      <c r="Y5">
+        <v>0.102929069354257</v>
+      </c>
+      <c r="Z5">
+        <v>-0.549002093521469</v>
+      </c>
+      <c r="AA5">
+        <v>-0.67685332725020997</v>
+      </c>
+      <c r="AB5">
+        <v>-0.167900545272584</v>
+      </c>
+      <c r="AC5">
+        <v>-0.119188530346449</v>
+      </c>
+      <c r="AE5">
+        <v>-0.95964711145168302</v>
+      </c>
+      <c r="AF5">
+        <v>-1.04357976318263</v>
+      </c>
+      <c r="AG5">
+        <v>-0.756676709165511</v>
+      </c>
+      <c r="AH5">
+        <v>-0.375757819698602</v>
+      </c>
+      <c r="AI5">
+        <v>-0.22334214953693299</v>
+      </c>
+      <c r="AK5">
+        <v>0.65209503230601495</v>
+      </c>
+      <c r="AL5">
+        <v>-3.0474068432317699E-2</v>
+      </c>
+      <c r="AM5">
+        <v>0.28070647380448299</v>
+      </c>
+      <c r="AN5">
+        <v>1.1122532426571801</v>
+      </c>
+      <c r="AO5">
+        <v>0.28499572527962602</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>-0.38676929196933102</v>
+      </c>
+      <c r="B6">
+        <v>1.3973356727434301</v>
+      </c>
+      <c r="C6">
+        <v>0.87093252475986005</v>
+      </c>
+      <c r="D6">
+        <v>-1.0239780351869501</v>
+      </c>
+      <c r="E6">
+        <v>-0.40703350239296698</v>
+      </c>
+      <c r="G6">
+        <v>-0.21115345978025399</v>
+      </c>
+      <c r="H6">
+        <v>0.55450041755938195</v>
+      </c>
+      <c r="I6">
+        <v>-5.3896346805603297E-2</v>
+      </c>
+      <c r="J6">
+        <v>-0.96238920007103901</v>
+      </c>
+      <c r="K6">
+        <v>-0.32957252285276101</v>
+      </c>
+      <c r="M6">
+        <v>-0.58268350482521303</v>
+      </c>
+      <c r="N6">
+        <v>-1.1319940156386801</v>
+      </c>
+      <c r="O6">
+        <v>-1.1153826359629599</v>
+      </c>
+      <c r="P6">
+        <v>-0.718971213773276</v>
+      </c>
+      <c r="Q6">
+        <v>-1.1839044025255301</v>
+      </c>
+      <c r="S6">
+        <v>-0.50281191957349403</v>
+      </c>
+      <c r="T6">
+        <v>-0.30951973204924399</v>
+      </c>
+      <c r="U6">
+        <v>0.89900836949727903</v>
+      </c>
+      <c r="V6">
+        <v>-0.28320273953180702</v>
+      </c>
+      <c r="W6">
+        <v>-0.89211555896471495</v>
+      </c>
+      <c r="Y6">
+        <v>-0.16183111747914999</v>
+      </c>
+      <c r="Z6">
+        <v>1.71675350062142E-2</v>
+      </c>
+      <c r="AA6">
+        <v>0.94853742363125604</v>
+      </c>
+      <c r="AB6">
+        <v>-0.464430594712605</v>
+      </c>
+      <c r="AC6">
+        <v>0.26001955262850202</v>
+      </c>
+      <c r="AE6">
+        <v>-0.223611056827583</v>
+      </c>
+      <c r="AF6">
+        <v>-0.14451127641028499</v>
+      </c>
+      <c r="AG6">
+        <v>0.87217204083218802</v>
+      </c>
+      <c r="AH6">
+        <v>-0.66267047068891305</v>
+      </c>
+      <c r="AI6">
+        <v>-0.799061024521731</v>
+      </c>
+      <c r="AK6">
+        <v>-0.26062941650086602</v>
+      </c>
+      <c r="AL6">
+        <v>0.374616168249429</v>
+      </c>
+      <c r="AM6">
+        <v>0.41264862750669101</v>
+      </c>
+      <c r="AN6">
+        <v>0.108165421831657</v>
+      </c>
+      <c r="AO6">
+        <v>0.46282076117007398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.92876189937471998</v>
+      </c>
+      <c r="B7">
+        <v>0.71471088750468803</v>
+      </c>
+      <c r="C7">
+        <v>0.58699588784760504</v>
+      </c>
+      <c r="D7">
+        <v>-1.3837222188756999</v>
+      </c>
+      <c r="E7">
+        <v>-1.40263651306843</v>
+      </c>
+      <c r="G7">
+        <v>-0.53228374427515202</v>
+      </c>
+      <c r="H7">
+        <v>0.70168845481688702</v>
+      </c>
+      <c r="I7">
+        <v>-4.2807435340606201E-2</v>
+      </c>
+      <c r="J7">
+        <v>-0.92872313834303299</v>
+      </c>
+      <c r="K7">
+        <v>-0.44814527173901397</v>
+      </c>
+      <c r="M7">
+        <v>-0.84970720937782895</v>
+      </c>
+      <c r="N7">
+        <v>-1.0617587454777599</v>
+      </c>
+      <c r="O7">
+        <v>-1.1383309346197299</v>
+      </c>
+      <c r="P7">
+        <v>-1.08937636392002</v>
+      </c>
+      <c r="Q7">
+        <v>-0.990617299141343</v>
+      </c>
+      <c r="S7">
+        <v>-0.64625187503530301</v>
+      </c>
+      <c r="T7">
+        <v>0.97382478573638898</v>
+      </c>
+      <c r="U7">
+        <v>-0.82592649499787596</v>
+      </c>
+      <c r="V7">
+        <v>-0.28413506057166399</v>
+      </c>
+      <c r="W7">
+        <v>0.34389257029122799</v>
+      </c>
+      <c r="Y7">
+        <v>-1.04430753006801</v>
+      </c>
+      <c r="Z7">
+        <v>-0.32237504206703699</v>
+      </c>
+      <c r="AA7">
+        <v>-0.90107885064054905</v>
+      </c>
+      <c r="AB7">
+        <v>0.320159371020591</v>
+      </c>
+      <c r="AC7">
+        <v>-0.65413058817163106</v>
+      </c>
+      <c r="AE7">
+        <v>-0.80935847701101504</v>
+      </c>
+      <c r="AF7">
+        <v>0.68439661545005404</v>
+      </c>
+      <c r="AG7">
+        <v>-0.65414693064642604</v>
+      </c>
+      <c r="AH7">
+        <v>-0.42942735275043997</v>
+      </c>
+      <c r="AI7">
+        <v>-6.9197025064772905E-2</v>
+      </c>
+      <c r="AK7">
+        <v>0.47064461582702399</v>
+      </c>
+      <c r="AL7">
+        <v>-7.8309565336737594E-2</v>
+      </c>
+      <c r="AM7">
+        <v>0.172831429484543</v>
+      </c>
+      <c r="AN7">
+        <v>-0.81471270155055497</v>
+      </c>
+      <c r="AO7">
+        <v>0.68301992794701505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.407275484041346</v>
+      </c>
+      <c r="B8">
+        <v>-0.63388264497992497</v>
+      </c>
+      <c r="C8">
+        <v>-1.0140257363512599</v>
+      </c>
+      <c r="D8">
+        <v>-1.36688754000472</v>
+      </c>
+      <c r="E8">
+        <v>-0.77222112495121797</v>
+      </c>
+      <c r="G8">
+        <v>0.49294318606482701</v>
+      </c>
+      <c r="H8">
+        <v>-0.45179152428517699</v>
+      </c>
+      <c r="I8">
+        <v>-0.70196929772614203</v>
+      </c>
+      <c r="J8">
+        <v>7.4391301276565E-2</v>
+      </c>
+      <c r="K8">
+        <v>2.9151403823605301E-2</v>
+      </c>
+      <c r="M8">
+        <v>-0.95262750875143198</v>
+      </c>
+      <c r="N8">
+        <v>-0.87943294312805398</v>
+      </c>
+      <c r="O8">
+        <v>-1.12130191616853</v>
+      </c>
+      <c r="P8">
+        <v>-1.06086659901765</v>
+      </c>
+      <c r="Q8">
+        <v>-1.1021850063733201</v>
+      </c>
+      <c r="S8">
+        <v>-0.26997587473527102</v>
+      </c>
+      <c r="T8">
+        <v>0.12820441854985001</v>
+      </c>
+      <c r="U8">
+        <v>0.101347148190956</v>
+      </c>
+      <c r="V8">
+        <v>-0.16025443088024799</v>
+      </c>
+      <c r="W8">
+        <v>-0.82947708547343302</v>
+      </c>
+      <c r="Y8">
+        <v>-0.73695377009096796</v>
+      </c>
+      <c r="Z8">
+        <v>-0.14901848252515501</v>
+      </c>
+      <c r="AA8">
+        <v>-0.28868853112703802</v>
+      </c>
+      <c r="AB8">
+        <v>-0.89140558218809596</v>
+      </c>
+      <c r="AC8">
+        <v>-0.92636130532410399</v>
+      </c>
+      <c r="AE8">
+        <v>0.35261364990682798</v>
+      </c>
+      <c r="AF8">
+        <v>0.45931733214167902</v>
+      </c>
+      <c r="AG8">
+        <v>-0.31180082634468698</v>
+      </c>
+      <c r="AH8">
+        <v>4.4119971558349298E-2</v>
+      </c>
+      <c r="AI8">
+        <v>-1.0130367258919899</v>
+      </c>
+      <c r="AK8">
+        <v>-0.18320261224593601</v>
+      </c>
+      <c r="AL8">
+        <v>0.47280708372064101</v>
+      </c>
+      <c r="AM8">
+        <v>-0.20223462441347301</v>
+      </c>
+      <c r="AN8">
+        <v>0.57456357833234595</v>
+      </c>
+      <c r="AO8">
+        <v>0.118574225350264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>-0.168193824417017</v>
+      </c>
+      <c r="B9">
+        <v>-1.4359886185348101</v>
+      </c>
+      <c r="C9">
+        <v>-1.13658926218251</v>
+      </c>
+      <c r="D9">
+        <v>-1.4147961482351801</v>
+      </c>
+      <c r="E9">
+        <v>-1.1896848086299401</v>
+      </c>
+      <c r="G9">
+        <v>-0.39544915206412301</v>
+      </c>
+      <c r="H9">
+        <v>-0.99528149345582495</v>
+      </c>
+      <c r="I9">
+        <v>-0.56906654618416097</v>
+      </c>
+      <c r="J9">
+        <v>-1.08985691482519</v>
+      </c>
+      <c r="K9">
+        <v>-0.75232860143122204</v>
+      </c>
+      <c r="M9">
+        <v>-0.87966184707344097</v>
+      </c>
+      <c r="N9">
+        <v>-0.98480680008423105</v>
+      </c>
+      <c r="O9">
+        <v>-0.87697157140995396</v>
+      </c>
+      <c r="P9">
+        <v>-0.95334982706289995</v>
+      </c>
+      <c r="Q9">
+        <v>-1.02128403438702</v>
+      </c>
+      <c r="S9">
+        <v>-0.40229232043935198</v>
+      </c>
+      <c r="T9">
+        <v>-0.30585143394111097</v>
+      </c>
+      <c r="U9">
+        <v>-0.647279512135984</v>
+      </c>
+      <c r="V9">
+        <v>-0.73447967341526099</v>
+      </c>
+      <c r="W9">
+        <v>8.8292247493335904E-2</v>
+      </c>
+      <c r="Y9">
+        <v>-0.37853893791424398</v>
+      </c>
+      <c r="Z9">
+        <v>0.38251439609803101</v>
+      </c>
+      <c r="AA9">
+        <v>-0.153728605705925</v>
+      </c>
+      <c r="AB9">
+        <v>-0.94205669152693605</v>
+      </c>
+      <c r="AC9">
+        <v>0.71801684286977197</v>
+      </c>
+      <c r="AE9">
+        <v>-0.16417328246121399</v>
+      </c>
+      <c r="AF9">
+        <v>-0.44848430009274898</v>
+      </c>
+      <c r="AG9">
+        <v>-0.449668914047546</v>
+      </c>
+      <c r="AH9">
+        <v>-0.85971039609167199</v>
+      </c>
+      <c r="AI9">
+        <v>-0.53538211513455503</v>
+      </c>
+      <c r="AK9">
+        <v>0.18043316782020999</v>
+      </c>
+      <c r="AL9">
+        <v>-5.6401972021585298E-2</v>
+      </c>
+      <c r="AM9">
+        <v>0.49647400977682499</v>
+      </c>
+      <c r="AN9">
+        <v>0.55289896636747304</v>
+      </c>
+      <c r="AO9">
+        <v>0.438889835981563</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0.54055203448518496</v>
+      </c>
+      <c r="B10">
+        <v>-1.2004453020404799</v>
+      </c>
+      <c r="C10">
+        <v>-1.00862460426</v>
+      </c>
+      <c r="D10">
+        <v>-0.36283570615494298</v>
+      </c>
+      <c r="E10">
+        <v>-0.88642732227594701</v>
+      </c>
+      <c r="G10">
+        <v>-0.61345934968914995</v>
+      </c>
+      <c r="H10">
+        <v>0.32383443299183901</v>
+      </c>
+      <c r="I10">
+        <v>-8.0303658080417298E-2</v>
+      </c>
+      <c r="J10">
+        <v>-4.2016874686765203E-2</v>
+      </c>
+      <c r="K10">
+        <v>-0.24620849314154999</v>
+      </c>
+      <c r="M10">
+        <v>-0.67892666316779204</v>
+      </c>
+      <c r="N10">
+        <v>-1.0513943526588201</v>
+      </c>
+      <c r="O10">
+        <v>-1.0793220444179401</v>
+      </c>
+      <c r="P10">
+        <v>-0.749658791780345</v>
+      </c>
+      <c r="Q10">
+        <v>-1.0609855629526901</v>
+      </c>
+      <c r="S10">
+        <v>0.41309344991951802</v>
+      </c>
+      <c r="T10">
+        <v>-0.72106574984712701</v>
+      </c>
+      <c r="U10">
+        <v>8.2374739493728893E-2</v>
+      </c>
+      <c r="V10">
+        <v>-0.54556173257500395</v>
+      </c>
+      <c r="W10">
+        <v>-0.59475245192137405</v>
+      </c>
+      <c r="Y10">
+        <v>0.79607547045608995</v>
+      </c>
+      <c r="Z10">
+        <v>-0.54235712650040002</v>
+      </c>
+      <c r="AA10">
+        <v>-5.7147974615377302E-2</v>
+      </c>
+      <c r="AB10">
+        <v>-0.73116573371837401</v>
+      </c>
+      <c r="AC10">
+        <v>0.16392348126891901</v>
+      </c>
+      <c r="AE10">
+        <v>-0.22368706515329101</v>
+      </c>
+      <c r="AF10">
+        <v>-0.42648865839236599</v>
+      </c>
+      <c r="AG10">
+        <v>-0.21592731906927401</v>
+      </c>
+      <c r="AH10">
+        <v>-0.49843206471289397</v>
+      </c>
+      <c r="AI10">
+        <v>-0.41211297403010599</v>
+      </c>
+      <c r="AK10">
+        <v>0.656055246910354</v>
+      </c>
+      <c r="AL10">
+        <v>-0.93105973992808599</v>
+      </c>
+      <c r="AM10">
+        <v>0.58799950045180505</v>
+      </c>
+      <c r="AN10">
+        <v>1.1981604720961101</v>
+      </c>
+      <c r="AO10">
+        <v>0.15199535617825599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>-1.42617436036651</v>
+      </c>
+      <c r="B11">
+        <v>-1.3376449566403501</v>
+      </c>
+      <c r="C11">
+        <v>-1.3842454420490899</v>
+      </c>
+      <c r="D11">
+        <v>-1.28035064802969</v>
+      </c>
+      <c r="E11">
+        <v>-1.1340123385908301</v>
+      </c>
+      <c r="G11">
+        <v>-0.64376039982932898</v>
+      </c>
+      <c r="H11">
+        <v>-1.1179269083942101</v>
+      </c>
+      <c r="I11">
+        <v>-1.0529143987840299</v>
+      </c>
+      <c r="J11">
+        <v>-0.36348251662853498</v>
+      </c>
+      <c r="K11">
+        <v>-0.183544731787154</v>
+      </c>
+      <c r="M11">
+        <v>-0.85794081332918604</v>
+      </c>
+      <c r="N11">
+        <v>-0.98060723090783497</v>
+      </c>
+      <c r="O11">
+        <v>-0.884955798178373</v>
+      </c>
+      <c r="P11">
+        <v>-1.0177376634348601</v>
+      </c>
+      <c r="Q11">
+        <v>-0.98283211610344301</v>
+      </c>
+      <c r="S11">
+        <v>-0.55331570029956401</v>
+      </c>
+      <c r="T11">
+        <v>-1.0864698910655</v>
+      </c>
+      <c r="U11">
+        <v>-0.80032942105861604</v>
+      </c>
+      <c r="V11">
+        <v>9.5744214620940099E-2</v>
+      </c>
+      <c r="W11">
+        <v>0.94396803846609301</v>
+      </c>
+      <c r="Y11">
+        <v>0.84606714894115997</v>
+      </c>
+      <c r="Z11">
+        <v>-0.25360429593450501</v>
+      </c>
+      <c r="AA11">
+        <v>-0.23050201904713299</v>
+      </c>
+      <c r="AB11">
+        <v>-0.61809823678336095</v>
+      </c>
+      <c r="AC11">
+        <v>-0.30515382467202301</v>
+      </c>
+      <c r="AE11">
+        <v>-0.31439498110199898</v>
+      </c>
+      <c r="AF11">
+        <v>-0.99724569382830697</v>
+      </c>
+      <c r="AG11">
+        <v>-0.70998045100621898</v>
+      </c>
+      <c r="AH11">
+        <v>5.7914377553564697E-2</v>
+      </c>
+      <c r="AI11">
+        <v>0.20997707595061901</v>
+      </c>
+      <c r="AK11">
+        <v>-0.73268003431536699</v>
+      </c>
+      <c r="AL11">
+        <v>0.642319048761684</v>
+      </c>
+      <c r="AM11">
+        <v>-0.210223678626002</v>
+      </c>
+      <c r="AN11">
+        <v>0.72991049794571505</v>
+      </c>
+      <c r="AO11">
+        <v>0.66170679551450595</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>-1.28227833887617</v>
+      </c>
+      <c r="B12">
+        <v>-0.79003984344669698</v>
+      </c>
+      <c r="C12">
+        <v>-0.68985039034638596</v>
+      </c>
+      <c r="D12">
+        <v>-1.40984149842124</v>
+      </c>
+      <c r="E12">
+        <v>-1.43226515528572</v>
+      </c>
+      <c r="G12">
+        <v>-0.146682671314326</v>
+      </c>
+      <c r="H12">
+        <v>-0.57514106980073898</v>
+      </c>
+      <c r="I12">
+        <v>-0.36369114260532198</v>
+      </c>
+      <c r="J12">
+        <v>-1.11224820581836</v>
+      </c>
+      <c r="K12">
+        <v>-0.81877388736170897</v>
+      </c>
+      <c r="M12">
+        <v>-0.547441002167256</v>
+      </c>
+      <c r="N12">
+        <v>-1.0692741747807499</v>
+      </c>
+      <c r="O12">
+        <v>-1.11574910812248</v>
+      </c>
+      <c r="P12">
+        <v>-1.0471502103580299</v>
+      </c>
+      <c r="Q12">
+        <v>-0.910401120477913</v>
+      </c>
+      <c r="S12">
+        <v>-0.714958679960915</v>
+      </c>
+      <c r="T12">
+        <v>-0.32553980461024701</v>
+      </c>
+      <c r="U12">
+        <v>-0.75932099502564399</v>
+      </c>
+      <c r="V12">
+        <v>-0.73350519232844202</v>
+      </c>
+      <c r="W12">
+        <v>-0.19429969350249901</v>
+      </c>
+      <c r="Y12">
+        <v>-0.21190652487047701</v>
+      </c>
+      <c r="Z12">
+        <v>-0.73714931433165598</v>
+      </c>
+      <c r="AA12">
+        <v>-0.83442563022334004</v>
+      </c>
+      <c r="AB12">
+        <v>-0.92456960495764895</v>
+      </c>
+      <c r="AC12">
+        <v>-0.37405984747785798</v>
+      </c>
+      <c r="AE12">
+        <v>-0.75397240689249501</v>
+      </c>
+      <c r="AF12">
+        <v>-0.39854101584266799</v>
+      </c>
+      <c r="AG12">
+        <v>-0.92924149320228699</v>
+      </c>
+      <c r="AH12">
+        <v>-0.81032925276208401</v>
+      </c>
+      <c r="AI12">
+        <v>-0.55694867296254702</v>
+      </c>
+      <c r="AK12">
+        <v>0.37248768638754298</v>
+      </c>
+      <c r="AL12">
+        <v>3.44823089929625E-2</v>
+      </c>
+      <c r="AM12">
+        <v>0.75105191530115001</v>
+      </c>
+      <c r="AN12">
+        <v>-8.4498161342066905E-2</v>
+      </c>
+      <c r="AO12">
+        <v>-0.28662506916152802</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>-0.66123089834842497</v>
+      </c>
+      <c r="B13">
+        <v>-1.26894892760381</v>
+      </c>
+      <c r="C13">
+        <v>-0.77388542348868194</v>
+      </c>
+      <c r="D13">
+        <v>-1.4060382940199301</v>
+      </c>
+      <c r="E13">
+        <v>-1.4069983746683099</v>
+      </c>
+      <c r="G13">
+        <v>-0.44907900263415501</v>
+      </c>
+      <c r="H13">
+        <v>5.3753943711268001E-2</v>
+      </c>
+      <c r="I13">
+        <v>-0.28666024793580502</v>
+      </c>
+      <c r="J13">
+        <v>-1.0273733552429101</v>
+      </c>
+      <c r="K13">
+        <v>-1.0624086005589399</v>
+      </c>
+      <c r="M13">
+        <v>-0.96461581838815602</v>
+      </c>
+      <c r="N13">
+        <v>-1.07091914863084</v>
+      </c>
+      <c r="O13">
+        <v>-1.0830131023646601</v>
+      </c>
+      <c r="P13">
+        <v>-1.0911297392071</v>
+      </c>
+      <c r="Q13">
+        <v>-1.06725010848261</v>
+      </c>
+      <c r="S13">
+        <v>-5.5575537770719503E-2</v>
+      </c>
+      <c r="T13">
+        <v>-0.86130269379443603</v>
+      </c>
+      <c r="U13">
+        <v>-0.179206983091625</v>
+      </c>
+      <c r="V13">
+        <v>-0.96519862353328101</v>
+      </c>
+      <c r="W13">
+        <v>-0.88028783004565403</v>
+      </c>
+      <c r="Y13">
+        <v>-0.42360086626571097</v>
+      </c>
+      <c r="Z13">
+        <v>4.6603808574830499E-2</v>
+      </c>
+      <c r="AA13">
+        <v>-0.68934493462354296</v>
+      </c>
+      <c r="AB13">
+        <v>-0.99978003799144699</v>
+      </c>
+      <c r="AC13">
+        <v>-0.87383760889611395</v>
+      </c>
+      <c r="AE13">
+        <v>-0.26083931744877797</v>
+      </c>
+      <c r="AF13">
+        <v>-0.71759559576611998</v>
+      </c>
+      <c r="AG13">
+        <v>-0.18654624679866899</v>
+      </c>
+      <c r="AH13">
+        <v>-0.889896106699677</v>
+      </c>
+      <c r="AI13">
+        <v>-0.75673254195966499</v>
+      </c>
+      <c r="AK13">
+        <v>0.80715436699225895</v>
+      </c>
+      <c r="AL13">
+        <v>-0.18600871919793999</v>
+      </c>
+      <c r="AM13">
+        <v>-0.395999691626433</v>
+      </c>
+      <c r="AN13">
+        <v>0.538807367607681</v>
+      </c>
+      <c r="AO13">
+        <v>0.85807264471885303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>-1.08125476238409</v>
+      </c>
+      <c r="B14">
+        <v>-1.35232766649797</v>
+      </c>
+      <c r="C14">
+        <v>-1.33261058433669</v>
+      </c>
+      <c r="D14">
+        <v>-1.1682331674681099</v>
+      </c>
+      <c r="E14">
+        <v>-0.92323614098979701</v>
+      </c>
+      <c r="G14">
+        <v>4.0703906487025897E-2</v>
+      </c>
+      <c r="H14">
+        <v>-0.66676348087053205</v>
+      </c>
+      <c r="I14">
+        <v>-0.92753515304522804</v>
+      </c>
+      <c r="J14">
+        <v>-0.86818051546229402</v>
+      </c>
+      <c r="K14">
+        <v>-0.914647232502243</v>
+      </c>
+      <c r="M14">
+        <v>-0.79550947457426402</v>
+      </c>
+      <c r="N14">
+        <v>-1.0834184717002999</v>
+      </c>
+      <c r="O14">
+        <v>-1.04417032464278</v>
+      </c>
+      <c r="P14">
+        <v>-0.80614483312115504</v>
+      </c>
+      <c r="Q14">
+        <v>-0.98044584426605896</v>
+      </c>
+      <c r="S14">
+        <v>-0.95662330963327102</v>
+      </c>
+      <c r="T14">
+        <v>-0.82078527688965797</v>
+      </c>
+      <c r="U14">
+        <v>-0.80743109420874803</v>
+      </c>
+      <c r="V14">
+        <v>-0.68609812695566097</v>
+      </c>
+      <c r="W14">
+        <v>-0.30896987286945699</v>
+      </c>
+      <c r="Y14">
+        <v>-0.76989867668991196</v>
+      </c>
+      <c r="Z14">
+        <v>-0.34427892827225398</v>
+      </c>
+      <c r="AA14">
+        <v>-0.73219467102876401</v>
+      </c>
+      <c r="AB14">
+        <v>-1.08687738472051</v>
+      </c>
+      <c r="AC14">
+        <v>-0.88758871634523095</v>
+      </c>
+      <c r="AE14">
+        <v>-0.82061893490460602</v>
+      </c>
+      <c r="AF14">
+        <v>-0.83509194627795802</v>
+      </c>
+      <c r="AG14">
+        <v>-0.82108871289388496</v>
+      </c>
+      <c r="AH14">
+        <v>-0.89301851123688203</v>
+      </c>
+      <c r="AI14">
+        <v>-0.72368925629398395</v>
+      </c>
+      <c r="AK14">
+        <v>0.33163725636150199</v>
+      </c>
+      <c r="AL14">
+        <v>-0.27148535473035201</v>
+      </c>
+      <c r="AM14">
+        <v>0.67138641348787098</v>
+      </c>
+      <c r="AN14">
+        <v>0.38111538148303697</v>
+      </c>
+      <c r="AO14">
+        <v>0.87070535537562699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>-1.44218118604896</v>
+      </c>
+      <c r="B15">
+        <v>-0.83404595408348703</v>
+      </c>
+      <c r="C15">
+        <v>0.501063392147443</v>
+      </c>
+      <c r="D15">
+        <v>-1.25988360345473</v>
+      </c>
+      <c r="E15">
+        <v>-1.42574408747701</v>
+      </c>
+      <c r="G15">
+        <v>-1.06334182528056</v>
+      </c>
+      <c r="H15">
+        <v>0.211376390646353</v>
+      </c>
+      <c r="I15">
+        <v>0.19526427201421301</v>
+      </c>
+      <c r="J15">
+        <v>-0.60508955857452695</v>
+      </c>
+      <c r="K15">
+        <v>-0.94086874420333799</v>
+      </c>
+      <c r="M15">
+        <v>-0.91958219729299795</v>
+      </c>
+      <c r="N15">
+        <v>-0.95818426186935501</v>
+      </c>
+      <c r="O15">
+        <v>-0.85654211650094403</v>
+      </c>
+      <c r="P15">
+        <v>-1.0801669437871599</v>
+      </c>
+      <c r="Q15">
+        <v>-1.1034115293448401</v>
+      </c>
+      <c r="S15">
+        <v>-0.356177628382355</v>
+      </c>
+      <c r="T15">
+        <v>-0.174878526705291</v>
+      </c>
+      <c r="U15">
+        <v>-3.5976761138404298E-2</v>
+      </c>
+      <c r="V15">
+        <v>-0.47750796810349599</v>
+      </c>
+      <c r="W15">
+        <v>-0.74078218388436701</v>
+      </c>
+      <c r="Y15">
+        <v>-0.70038656585617898</v>
+      </c>
+      <c r="Z15">
+        <v>-1.1915925209162199</v>
+      </c>
+      <c r="AA15">
+        <v>-0.33441918009578098</v>
+      </c>
+      <c r="AB15">
+        <v>-2.5512595950504102E-2</v>
+      </c>
+      <c r="AC15">
+        <v>-0.239492555946269</v>
+      </c>
+      <c r="AE15">
+        <v>-0.44780382442239203</v>
+      </c>
+      <c r="AF15">
+        <v>-0.30462741079537498</v>
+      </c>
+      <c r="AG15">
+        <v>-0.25546178240341899</v>
+      </c>
+      <c r="AH15">
+        <v>-0.398006551499482</v>
+      </c>
+      <c r="AI15">
+        <v>-0.91991283055973905</v>
+      </c>
+      <c r="AK15">
+        <v>7.0121048765941205E-2</v>
+      </c>
+      <c r="AL15">
+        <v>0.47061357673722398</v>
+      </c>
+      <c r="AM15">
+        <v>0.70298572449917496</v>
+      </c>
+      <c r="AN15">
+        <v>0.37503728271456399</v>
+      </c>
+      <c r="AO15">
+        <v>0.23276978943933299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>-0.891105268077651</v>
+      </c>
+      <c r="B16">
+        <v>-1.4011207628784399</v>
+      </c>
+      <c r="C16">
+        <v>-0.98766347333984505</v>
+      </c>
+      <c r="D16">
+        <v>-1.43081231325937</v>
+      </c>
+      <c r="E16">
+        <v>-0.92025867638669601</v>
+      </c>
+      <c r="G16">
+        <v>-0.37526667954454801</v>
+      </c>
+      <c r="H16">
+        <v>-1.0289230942108001</v>
+      </c>
+      <c r="I16">
+        <v>-0.76025876119986102</v>
+      </c>
+      <c r="J16">
+        <v>-0.62401521121412495</v>
+      </c>
+      <c r="K16">
+        <v>-0.59100217490642204</v>
+      </c>
+      <c r="M16">
+        <v>-1.04264327424448</v>
+      </c>
+      <c r="N16">
+        <v>-1.0816211023456199</v>
+      </c>
+      <c r="O16">
+        <v>-0.99150025122955299</v>
+      </c>
+      <c r="P16">
+        <v>-1.1000409509071101</v>
+      </c>
+      <c r="Q16">
+        <v>-1.0618339945373001</v>
+      </c>
+      <c r="S16">
+        <v>-0.84768452973911701</v>
+      </c>
+      <c r="T16">
+        <v>-0.80658077856277499</v>
+      </c>
+      <c r="U16">
+        <v>-0.82873668122018096</v>
+      </c>
+      <c r="V16">
+        <v>-3.4955347168043098E-2</v>
+      </c>
+      <c r="W16">
+        <v>-0.82582340765135198</v>
+      </c>
+      <c r="Y16">
+        <v>-0.870422288411139</v>
+      </c>
+      <c r="Z16">
+        <v>-1.0919863555240701</v>
+      </c>
+      <c r="AA16">
+        <v>3.1666224854303301E-2</v>
+      </c>
+      <c r="AB16">
+        <v>-1.0369958458834101</v>
+      </c>
+      <c r="AC16">
+        <v>-0.873103934837554</v>
+      </c>
+      <c r="AE16">
+        <v>-0.97459374353134998</v>
+      </c>
+      <c r="AF16">
+        <v>-0.97033686109134298</v>
+      </c>
+      <c r="AG16">
+        <v>-0.52863236434871597</v>
+      </c>
+      <c r="AH16">
+        <v>-0.57783986477331095</v>
+      </c>
+      <c r="AI16">
+        <v>-0.78527919407119096</v>
+      </c>
+      <c r="AK16">
+        <v>0.55204422589204305</v>
+      </c>
+      <c r="AL16">
+        <v>0.59884133100374404</v>
+      </c>
+      <c r="AM16">
+        <v>0.35925264763461101</v>
+      </c>
+      <c r="AN16">
+        <v>0.59501607300028803</v>
+      </c>
+      <c r="AO16">
+        <v>0.198882996567148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>-1.23937379215044</v>
+      </c>
+      <c r="B17">
+        <v>-1.19002128738221</v>
+      </c>
+      <c r="C17">
+        <v>-1.3187744029806301</v>
+      </c>
+      <c r="D17">
+        <v>-1.09919032738901</v>
+      </c>
+      <c r="E17">
+        <v>-1.2996341147841399</v>
+      </c>
+      <c r="G17">
+        <v>-0.59366144761836703</v>
+      </c>
+      <c r="H17">
+        <v>-0.29565723670269001</v>
+      </c>
+      <c r="I17">
+        <v>-0.96547461674784496</v>
+      </c>
+      <c r="J17">
+        <v>-0.28156372063297502</v>
+      </c>
+      <c r="K17">
+        <v>-0.73412517452904702</v>
+      </c>
+      <c r="M17">
+        <v>-0.62093318384034002</v>
+      </c>
+      <c r="N17">
+        <v>-1.0470193654884801</v>
+      </c>
+      <c r="O17">
+        <v>-1.0805563473946</v>
+      </c>
+      <c r="P17">
+        <v>-1.0902149755702699</v>
+      </c>
+      <c r="Q17">
+        <v>-1.05265830887627</v>
+      </c>
+      <c r="S17">
+        <v>-0.77186312363042398</v>
+      </c>
+      <c r="T17">
+        <v>-1.04800255594131</v>
+      </c>
+      <c r="U17">
+        <v>-1.10321228029049</v>
+      </c>
+      <c r="V17">
+        <v>-0.99692937833247097</v>
+      </c>
+      <c r="W17">
+        <v>-0.76299963406610205</v>
+      </c>
+      <c r="Y17">
+        <v>3.01103017936857E-3</v>
+      </c>
+      <c r="Z17">
+        <v>-0.99126097463635998</v>
+      </c>
+      <c r="AA17">
+        <v>-0.86668425207097899</v>
+      </c>
+      <c r="AB17">
+        <v>-0.72472955344384205</v>
+      </c>
+      <c r="AC17">
+        <v>0.86585599017997605</v>
+      </c>
+      <c r="AE17">
+        <v>-0.91598105190604295</v>
+      </c>
+      <c r="AF17">
+        <v>-1.0470237556884301</v>
+      </c>
+      <c r="AG17">
+        <v>-1.0716370686968699</v>
+      </c>
+      <c r="AH17">
+        <v>-0.75743493831273001</v>
+      </c>
+      <c r="AI17">
+        <v>-0.96801580961272904</v>
+      </c>
+      <c r="AK17">
+        <v>-4.3796975511207398E-2</v>
+      </c>
+      <c r="AL17">
+        <v>1.0673594851975099</v>
+      </c>
+      <c r="AM17">
+        <v>-0.66896834955219298</v>
+      </c>
+      <c r="AN17">
+        <v>-2.7668373795939501E-2</v>
+      </c>
+      <c r="AO17">
+        <v>0.17493436576621099</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>-0.65851304370660002</v>
+      </c>
+      <c r="B18">
+        <v>-1.3909980460098299</v>
+      </c>
+      <c r="C18">
+        <v>-1.11862669872723</v>
+      </c>
+      <c r="D18">
+        <v>-1.3804903346247701</v>
+      </c>
+      <c r="E18">
+        <v>-0.71343659019180505</v>
+      </c>
+      <c r="G18">
+        <v>-0.26763962736803598</v>
+      </c>
+      <c r="H18">
+        <v>-0.72911891376395999</v>
+      </c>
+      <c r="I18">
+        <v>-0.61366051964562596</v>
+      </c>
+      <c r="J18">
+        <v>-0.49301781188547</v>
+      </c>
+      <c r="K18">
+        <v>0.135897477357625</v>
+      </c>
+      <c r="M18">
+        <v>0.16403961146573801</v>
+      </c>
+      <c r="N18">
+        <v>-0.64427182291290097</v>
+      </c>
+      <c r="O18">
+        <v>-0.77577699555757695</v>
+      </c>
+      <c r="P18">
+        <v>-0.77388898810943496</v>
+      </c>
+      <c r="Q18">
+        <v>-0.94709977377010401</v>
+      </c>
+      <c r="S18">
+        <v>-1.1933276698222199</v>
+      </c>
+      <c r="T18">
+        <v>-0.58741209939505801</v>
+      </c>
+      <c r="U18">
+        <v>-0.64483285306817995</v>
+      </c>
+      <c r="V18">
+        <v>-0.78348295785215705</v>
+      </c>
+      <c r="W18">
+        <v>-0.96349433550544406</v>
+      </c>
+      <c r="Y18">
+        <v>9.54333355529636E-2</v>
+      </c>
+      <c r="Z18">
+        <v>1.08713697886107E-2</v>
+      </c>
+      <c r="AA18">
+        <v>0.148260479078798</v>
+      </c>
+      <c r="AB18">
+        <v>-0.60700125118986203</v>
+      </c>
+      <c r="AC18">
+        <v>-0.73301772992577297</v>
+      </c>
+      <c r="AE18">
+        <v>-1.1939354795905699</v>
+      </c>
+      <c r="AF18">
+        <v>-0.82852611384268204</v>
+      </c>
+      <c r="AG18">
+        <v>-0.80245427520594803</v>
+      </c>
+      <c r="AH18">
+        <v>-0.74849458955161396</v>
+      </c>
+      <c r="AI18">
+        <v>-0.94470889146395198</v>
+      </c>
+      <c r="AK18">
+        <v>0.35987464850494</v>
+      </c>
+      <c r="AL18">
+        <v>0.67505222962234501</v>
+      </c>
+      <c r="AM18">
+        <v>0.29185607761455601</v>
+      </c>
+      <c r="AN18">
+        <v>-0.30751726019674502</v>
+      </c>
+      <c r="AO18">
+        <v>0.54899115251429098</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>-1.3574317794412001</v>
+      </c>
+      <c r="B19">
+        <v>6.2971016310003999E-2</v>
+      </c>
+      <c r="C19">
+        <v>-1.4041431617755999</v>
+      </c>
+      <c r="D19">
+        <v>-1.3424329365442</v>
+      </c>
+      <c r="E19">
+        <v>-1.42119172356424</v>
+      </c>
+      <c r="G19">
+        <v>6.57930310515836E-2</v>
+      </c>
+      <c r="H19">
+        <v>0.28157296290857098</v>
+      </c>
+      <c r="I19">
+        <v>-0.49101031408805401</v>
+      </c>
+      <c r="J19">
+        <v>-0.56072366651023997</v>
+      </c>
+      <c r="K19">
+        <v>-0.92678619187056799</v>
+      </c>
+      <c r="M19">
+        <v>-0.32708799779183101</v>
+      </c>
+      <c r="N19">
+        <v>-0.73435889436033297</v>
+      </c>
+      <c r="O19">
+        <v>-0.86297261345137299</v>
+      </c>
+      <c r="P19">
+        <v>-0.79216991309338103</v>
+      </c>
+      <c r="Q19">
+        <v>-1.08647290288246</v>
+      </c>
+      <c r="S19">
+        <v>5.41285656015002E-2</v>
+      </c>
+      <c r="T19">
+        <v>0.29055380681515502</v>
+      </c>
+      <c r="U19">
+        <v>-0.355330506855349</v>
+      </c>
+      <c r="V19">
+        <v>-0.71963785813043801</v>
+      </c>
+      <c r="W19">
+        <v>-0.54355741490267995</v>
+      </c>
+      <c r="Y19">
+        <v>-0.146665614038057</v>
+      </c>
+      <c r="Z19">
+        <v>-0.548093809518713</v>
+      </c>
+      <c r="AA19">
+        <v>-0.55510462792362303</v>
+      </c>
+      <c r="AB19">
+        <v>-0.794097109482088</v>
+      </c>
+      <c r="AC19">
+        <v>0.27071949395772998</v>
+      </c>
+      <c r="AE19">
+        <v>-8.2397408309987694E-2</v>
+      </c>
+      <c r="AF19">
+        <v>-0.152142964235087</v>
+      </c>
+      <c r="AG19">
+        <v>-0.37024276090230002</v>
+      </c>
+      <c r="AH19">
+        <v>-0.88642554704716103</v>
+      </c>
+      <c r="AI19">
+        <v>-0.93522750431384505</v>
+      </c>
+      <c r="AK19">
+        <v>-0.159008967994442</v>
+      </c>
+      <c r="AL19">
+        <v>0.679972221266124</v>
+      </c>
+      <c r="AM19">
+        <v>-1.35511220551263E-2</v>
+      </c>
+      <c r="AN19">
+        <v>0.65122825688084396</v>
+      </c>
+      <c r="AO19">
+        <v>0.13315762229473299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0.29521630847289798</v>
+      </c>
+      <c r="B20">
+        <v>-1.0423433222398399</v>
+      </c>
+      <c r="C20">
+        <v>-1.2469455798740301</v>
+      </c>
+      <c r="D20">
+        <v>-0.99154303861269699</v>
+      </c>
+      <c r="E20">
+        <v>-1.0260719572888199</v>
+      </c>
+      <c r="G20">
+        <v>-0.55625473177806894</v>
+      </c>
+      <c r="H20">
+        <v>9.93285008088787E-2</v>
+      </c>
+      <c r="I20">
+        <v>-1.0079896013833001</v>
+      </c>
+      <c r="J20">
+        <v>-0.66568287635330803</v>
+      </c>
+      <c r="K20">
+        <v>-2.2310355549984898E-2</v>
+      </c>
+      <c r="M20">
+        <v>-1.1121662426154799</v>
+      </c>
+      <c r="N20">
+        <v>-1.0592727020016901</v>
+      </c>
+      <c r="O20">
+        <v>-1.07880628078229</v>
+      </c>
+      <c r="P20">
+        <v>-1.0703444499647601</v>
+      </c>
+      <c r="Q20">
+        <v>-1.0465181889008599</v>
+      </c>
+      <c r="S20">
+        <v>1.0029791431839401</v>
+      </c>
+      <c r="T20">
+        <v>-0.20940792966228</v>
+      </c>
+      <c r="U20">
+        <v>0.65083234846911397</v>
+      </c>
+      <c r="V20">
+        <v>2.33526353667616E-2</v>
+      </c>
+      <c r="W20">
+        <v>-0.29915406776331199</v>
+      </c>
+      <c r="Y20">
+        <v>0.117122730951552</v>
+      </c>
+      <c r="Z20">
+        <v>-0.70494066974329594</v>
+      </c>
+      <c r="AA20">
+        <v>-0.28883730669198099</v>
+      </c>
+      <c r="AB20">
+        <v>-0.68355791356140705</v>
+      </c>
+      <c r="AC20">
+        <v>-0.14154081628639401</v>
+      </c>
+      <c r="AE20">
+        <v>0.51566031159645598</v>
+      </c>
+      <c r="AF20">
+        <v>-0.18973420028443</v>
+      </c>
+      <c r="AG20">
+        <v>-0.12795355169093001</v>
+      </c>
+      <c r="AH20">
+        <v>-3.5463809081192697E-2</v>
+      </c>
+      <c r="AI20">
+        <v>-0.34883407601759397</v>
+      </c>
+      <c r="AK20">
+        <v>1.0425913140203</v>
+      </c>
+      <c r="AL20">
+        <v>0.63290460016674499</v>
+      </c>
+      <c r="AM20">
+        <v>0.117433001146726</v>
+      </c>
+      <c r="AN20">
+        <v>-2.2735630289964E-2</v>
+      </c>
+      <c r="AO20">
+        <v>0.78394095416155096</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>-1.03860291736053</v>
+      </c>
+      <c r="B21">
+        <v>-1.42587072456919</v>
+      </c>
+      <c r="C21">
+        <v>-1.42500939966438</v>
+      </c>
+      <c r="D21">
+        <v>0.47859814847044102</v>
+      </c>
+      <c r="E21">
+        <v>-0.41083961184109002</v>
+      </c>
+      <c r="G21">
+        <v>-0.243679058034172</v>
+      </c>
+      <c r="H21">
+        <v>-7.4271953197926399E-2</v>
+      </c>
+      <c r="I21">
+        <v>-0.60914631257950003</v>
+      </c>
+      <c r="J21">
+        <v>8.6919754439302402E-2</v>
+      </c>
+      <c r="K21">
+        <v>5.7383851431997597E-2</v>
+      </c>
+      <c r="M21">
+        <v>-0.62939721895140499</v>
+      </c>
+      <c r="N21">
+        <v>-0.80315104509896695</v>
+      </c>
+      <c r="O21">
+        <v>-0.98454593052804795</v>
+      </c>
+      <c r="P21">
+        <v>-0.93867207744318604</v>
+      </c>
+      <c r="Q21">
+        <v>-1.11077569481724</v>
+      </c>
+      <c r="S21">
+        <v>-0.16884794721111401</v>
+      </c>
+      <c r="T21">
+        <v>-0.34195712941954498</v>
+      </c>
+      <c r="U21">
+        <v>-1.10424231591009</v>
+      </c>
+      <c r="V21">
+        <v>0.39299551525910797</v>
+      </c>
+      <c r="W21">
+        <v>0.406671505283215</v>
+      </c>
+      <c r="Y21">
+        <v>0.17679490786875299</v>
+      </c>
+      <c r="Z21">
+        <v>-0.92161071198053202</v>
+      </c>
+      <c r="AA21">
+        <v>-0.97749375176046205</v>
+      </c>
+      <c r="AB21">
+        <v>-8.2058495287988795E-2</v>
+      </c>
+      <c r="AC21">
+        <v>-0.24840566486729099</v>
+      </c>
+      <c r="AE21">
+        <v>-0.14249371709410899</v>
+      </c>
+      <c r="AF21">
+        <v>-0.308184257515287</v>
+      </c>
+      <c r="AG21">
+        <v>-1.0794574415752001</v>
+      </c>
+      <c r="AH21">
+        <v>0.57769282968534197</v>
+      </c>
+      <c r="AI21">
+        <v>0.28629852987965698</v>
+      </c>
+      <c r="AK21">
+        <v>-0.32155747442877802</v>
+      </c>
+      <c r="AL21">
+        <v>0.34614323770118099</v>
+      </c>
+      <c r="AM21">
+        <v>0.37939843519973898</v>
+      </c>
+      <c r="AN21">
+        <v>6.3690837263274694E-2</v>
+      </c>
+      <c r="AO21">
+        <v>0.31182819166034598</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>-0.51245006969727003</v>
+      </c>
+      <c r="B22">
+        <v>-1.4097876898400299</v>
+      </c>
+      <c r="C22">
+        <v>-1.3019662775404699</v>
+      </c>
+      <c r="D22">
+        <v>-1.43197877375339</v>
+      </c>
+      <c r="E22">
+        <v>-1.10031285912191</v>
+      </c>
+      <c r="G22">
+        <v>1.6706973892020801E-2</v>
+      </c>
+      <c r="H22">
+        <v>-0.10512896669234401</v>
+      </c>
+      <c r="I22">
+        <v>-0.46964005923864499</v>
+      </c>
+      <c r="J22">
+        <v>-0.219083447670024</v>
+      </c>
+      <c r="K22">
+        <v>-0.38866458052640501</v>
+      </c>
+      <c r="M22">
+        <v>-0.78264405529663295</v>
+      </c>
+      <c r="N22">
+        <v>-0.71930420788899396</v>
+      </c>
+      <c r="O22">
+        <v>-0.83396628669683004</v>
+      </c>
+      <c r="P22">
+        <v>-0.99166550334580394</v>
+      </c>
+      <c r="Q22">
+        <v>-0.87505883225738901</v>
+      </c>
+      <c r="S22">
+        <v>-0.29954839585054699</v>
+      </c>
+      <c r="T22">
+        <v>-7.6680060590158403E-2</v>
+      </c>
+      <c r="U22">
+        <v>-0.24777748316731099</v>
+      </c>
+      <c r="V22">
+        <v>0.30945273808676399</v>
+      </c>
+      <c r="W22">
+        <v>-0.54418624921710301</v>
+      </c>
+      <c r="Y22">
+        <v>0.120145918264004</v>
+      </c>
+      <c r="Z22">
+        <v>-0.52927725461254804</v>
+      </c>
+      <c r="AA22">
+        <v>-0.36636703749917698</v>
+      </c>
+      <c r="AB22">
+        <v>-0.10259930977345499</v>
+      </c>
+      <c r="AC22">
+        <v>0.206345307309097</v>
+      </c>
+      <c r="AE22">
+        <v>-0.486081997575944</v>
+      </c>
+      <c r="AF22">
+        <v>-5.2612297976299398E-2</v>
+      </c>
+      <c r="AG22">
+        <v>-0.35810470533089001</v>
+      </c>
+      <c r="AH22">
+        <v>-0.102444582908239</v>
+      </c>
+      <c r="AI22">
+        <v>-0.15983858986967101</v>
+      </c>
+      <c r="AK22">
+        <v>0.29016976261341698</v>
+      </c>
+      <c r="AL22">
+        <v>-0.43239934679509601</v>
+      </c>
+      <c r="AM22">
+        <v>0.36513457629198398</v>
+      </c>
+      <c r="AN22">
+        <v>0.84148123326122304</v>
+      </c>
+      <c r="AO22">
+        <v>0.30453478841216503</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>-0.95306492867138903</v>
+      </c>
+      <c r="B23">
+        <v>-1.4430304375030401</v>
+      </c>
+      <c r="C23">
+        <v>-1.3609892999881099</v>
+      </c>
+      <c r="D23">
+        <v>-1.31973906192471</v>
+      </c>
+      <c r="E23">
+        <v>-1.43914518916471</v>
+      </c>
+      <c r="G23">
+        <v>0.43106143459545798</v>
+      </c>
+      <c r="H23">
+        <v>-1.0191264800351401</v>
+      </c>
+      <c r="I23">
+        <v>-1.0194834136836299</v>
+      </c>
+      <c r="J23">
+        <v>-0.46502909139362802</v>
+      </c>
+      <c r="K23">
+        <v>-1.1507774155499699</v>
+      </c>
+      <c r="M23">
+        <v>-0.68677206293695103</v>
+      </c>
+      <c r="N23">
+        <v>-1.0152721417897399</v>
+      </c>
+      <c r="O23">
+        <v>-1.0664196041210701</v>
+      </c>
+      <c r="P23">
+        <v>-1.0919486721273099</v>
+      </c>
+      <c r="Q23">
+        <v>-0.973135038042514</v>
+      </c>
+      <c r="S23">
+        <v>-7.7492350547734595E-2</v>
+      </c>
+      <c r="T23">
+        <v>-0.93757995647610404</v>
+      </c>
+      <c r="U23">
+        <v>-0.99813060596395298</v>
+      </c>
+      <c r="V23">
+        <v>0.97497317777502901</v>
+      </c>
+      <c r="W23">
+        <v>-0.70285757109873603</v>
+      </c>
+      <c r="Y23">
+        <v>0.31426873851701398</v>
+      </c>
+      <c r="Z23">
+        <v>-1.18637735897354</v>
+      </c>
+      <c r="AA23">
+        <v>-1.06730296136175</v>
+      </c>
+      <c r="AB23">
+        <v>-1.0172474365308199</v>
+      </c>
+      <c r="AC23">
+        <v>-0.25370431923485898</v>
+      </c>
+      <c r="AE23">
+        <v>0.11285381263694701</v>
+      </c>
+      <c r="AF23">
+        <v>-0.96969361354241601</v>
+      </c>
+      <c r="AG23">
+        <v>-1.0103168818400301</v>
+      </c>
+      <c r="AH23">
+        <v>1.0020630378386901</v>
+      </c>
+      <c r="AI23">
+        <v>-0.591835562335706</v>
+      </c>
+      <c r="AK23">
+        <v>0.222006397108894</v>
+      </c>
+      <c r="AL23">
+        <v>0.80326604587181805</v>
+      </c>
+      <c r="AM23">
+        <v>0.75903621093372198</v>
+      </c>
+      <c r="AN23">
+        <v>-0.35418804991736802</v>
+      </c>
+      <c r="AO23">
+        <v>0.47845093114929599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>-1.0280901002645499</v>
+      </c>
+      <c r="B24">
+        <v>-1.3487610790929101</v>
+      </c>
+      <c r="C24">
+        <v>-1.4028348804839801</v>
+      </c>
+      <c r="D24">
+        <v>-1.37390539813423</v>
+      </c>
+      <c r="E24">
+        <v>-1.4232544870661299</v>
+      </c>
+      <c r="G24">
+        <v>-0.37256590404826501</v>
+      </c>
+      <c r="H24">
+        <v>-1.02783129163929</v>
+      </c>
+      <c r="I24">
+        <v>-1.0226100160325799</v>
+      </c>
+      <c r="J24">
+        <v>-0.83363183713039901</v>
+      </c>
+      <c r="K24">
+        <v>-1.0910957503246099</v>
+      </c>
+      <c r="M24">
+        <v>-1.0268611313843601</v>
+      </c>
+      <c r="N24">
+        <v>-1.07590675238013</v>
+      </c>
+      <c r="O24">
+        <v>-1.0650144161777999</v>
+      </c>
+      <c r="P24">
+        <v>-1.0584765411653501</v>
+      </c>
+      <c r="Q24">
+        <v>-1.09146449690759</v>
+      </c>
+      <c r="S24">
+        <v>-0.62703817262907902</v>
+      </c>
+      <c r="T24">
+        <v>-0.68094144574857196</v>
+      </c>
+      <c r="U24">
+        <v>4.9495347278719598E-2</v>
+      </c>
+      <c r="V24">
+        <v>-0.80905165070973195</v>
+      </c>
+      <c r="W24">
+        <v>-1.1177900330134001</v>
+      </c>
+      <c r="Y24">
+        <v>-0.565244372327114</v>
+      </c>
+      <c r="Z24">
+        <v>-1.1364708653718401</v>
+      </c>
+      <c r="AA24">
+        <v>-1.0200463861467499</v>
+      </c>
+      <c r="AB24">
+        <v>-0.67916249925734895</v>
+      </c>
+      <c r="AC24">
+        <v>-1.10146785250899</v>
+      </c>
+      <c r="AE24">
+        <v>-1.09202143709433</v>
+      </c>
+      <c r="AF24">
+        <v>-0.63940393822038399</v>
+      </c>
+      <c r="AG24">
+        <v>-0.36472532734735302</v>
+      </c>
+      <c r="AH24">
+        <v>-0.65387372227433305</v>
+      </c>
+      <c r="AI24">
+        <v>-1.0567787773033099</v>
+      </c>
+      <c r="AK24">
+        <v>0.149263254108535</v>
+      </c>
+      <c r="AL24">
+        <v>0.17052640744439901</v>
+      </c>
+      <c r="AM24">
+        <v>0.51677161295385798</v>
+      </c>
+      <c r="AN24">
+        <v>0.68314968213748495</v>
+      </c>
+      <c r="AO24">
+        <v>0.42989380773202901</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>-0.72010885539049496</v>
+      </c>
+      <c r="B25">
+        <v>-1.38945983664966</v>
+      </c>
+      <c r="C25">
+        <v>-1.43771210391532</v>
+      </c>
+      <c r="D25">
+        <v>-1.2818220907845701</v>
+      </c>
+      <c r="E25">
+        <v>-1.44275440517397</v>
+      </c>
+      <c r="G25">
+        <v>-0.96068114385952597</v>
+      </c>
+      <c r="H25">
+        <v>-0.78743628988367398</v>
+      </c>
+      <c r="I25">
+        <v>-1.15379747817698</v>
+      </c>
+      <c r="J25">
+        <v>-0.45276457891234501</v>
+      </c>
+      <c r="K25">
+        <v>-0.93864546935917204</v>
+      </c>
+      <c r="M25">
+        <v>-0.59053770339087497</v>
+      </c>
+      <c r="N25">
+        <v>-1.00336844664431</v>
+      </c>
+      <c r="O25">
+        <v>-1.1197972122834901</v>
+      </c>
+      <c r="P25">
+        <v>-0.997505667180833</v>
+      </c>
+      <c r="Q25">
+        <v>-1.06231201263088</v>
+      </c>
+      <c r="S25">
+        <v>-0.75834489426180496</v>
+      </c>
+      <c r="T25">
+        <v>0.37060666415778698</v>
+      </c>
+      <c r="U25">
+        <v>-1.0668105611565799</v>
+      </c>
+      <c r="V25">
+        <v>-0.65658051679281504</v>
+      </c>
+      <c r="W25">
+        <v>-0.78312370118050401</v>
+      </c>
+      <c r="Y25">
+        <v>0.81152782974667004</v>
+      </c>
+      <c r="Z25">
+        <v>0.110572424228689</v>
+      </c>
+      <c r="AA25">
+        <v>-4.9610819798275703E-2</v>
+      </c>
+      <c r="AB25">
+        <v>-0.96196672323907495</v>
+      </c>
+      <c r="AC25">
+        <v>-1.0109939998461801</v>
+      </c>
+      <c r="AE25">
+        <v>-0.28764998819370102</v>
+      </c>
+      <c r="AF25">
+        <v>0.40225496898950602</v>
+      </c>
+      <c r="AG25">
+        <v>-1.01489007318741</v>
+      </c>
+      <c r="AH25">
+        <v>-0.64385312737305</v>
+      </c>
+      <c r="AI25">
+        <v>-1.0197794952024499</v>
+      </c>
+      <c r="AK25">
+        <v>-0.22800306432550499</v>
+      </c>
+      <c r="AL25">
+        <v>0.89894091925844499</v>
+      </c>
+      <c r="AM25">
+        <v>0.79935128022628599</v>
+      </c>
+      <c r="AN25">
+        <v>0.79763928485001401</v>
+      </c>
+      <c r="AO25">
+        <v>-5.0565557891803503E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>-1.28456060155851</v>
+      </c>
+      <c r="B26">
+        <v>-1.4297786956965399</v>
+      </c>
+      <c r="C26">
+        <v>-1.42127913743058</v>
+      </c>
+      <c r="D26">
+        <v>-1.1045490275669401</v>
+      </c>
+      <c r="E26">
+        <v>-1.31425785484074</v>
+      </c>
+      <c r="G26">
+        <v>-0.46467772616099101</v>
+      </c>
+      <c r="H26">
+        <v>-0.85922507457636998</v>
+      </c>
+      <c r="I26">
+        <v>-0.98927979200037297</v>
+      </c>
+      <c r="J26">
+        <v>-0.86354768034771801</v>
+      </c>
+      <c r="K26">
+        <v>-0.52162811074446003</v>
+      </c>
+      <c r="M26">
+        <v>-0.94120345520370796</v>
+      </c>
+      <c r="N26">
+        <v>-1.00279119016165</v>
+      </c>
+      <c r="O26">
+        <v>-1.0338560458985899</v>
+      </c>
+      <c r="P26">
+        <v>-1.10166316314396</v>
+      </c>
+      <c r="Q26">
+        <v>-1.09758360133916</v>
+      </c>
+      <c r="S26">
+        <v>-0.85295080433223602</v>
+      </c>
+      <c r="T26">
+        <v>-0.90499833588036105</v>
+      </c>
+      <c r="U26">
+        <v>-0.92826066707224397</v>
+      </c>
+      <c r="V26">
+        <v>-0.44090303725323199</v>
+      </c>
+      <c r="W26">
+        <v>-0.30327940662476399</v>
+      </c>
+      <c r="Y26">
+        <v>-0.182074973601804</v>
+      </c>
+      <c r="Z26">
+        <v>-0.82189627183288905</v>
+      </c>
+      <c r="AA26">
+        <v>-7.7238075365074293E-2</v>
+      </c>
+      <c r="AB26">
+        <v>-0.19229424520824301</v>
+      </c>
+      <c r="AC26">
+        <v>0.460927485689543</v>
+      </c>
+      <c r="AE26">
+        <v>-0.82873322147080497</v>
+      </c>
+      <c r="AF26">
+        <v>-1.05628206268314</v>
+      </c>
+      <c r="AG26">
+        <v>-0.74932282007546203</v>
+      </c>
+      <c r="AH26">
+        <v>-0.44013274993902901</v>
+      </c>
+      <c r="AI26">
+        <v>-0.58710160976067804</v>
+      </c>
+      <c r="AK26">
+        <v>0.26092011578755298</v>
+      </c>
+      <c r="AL26">
+        <v>0.55913973632751401</v>
+      </c>
+      <c r="AM26">
+        <v>-0.36535659048291702</v>
+      </c>
+      <c r="AN26">
+        <v>-0.54611249130388695</v>
+      </c>
+      <c r="AO26">
+        <v>0.28661809022360302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>-1.03320769159623</v>
+      </c>
+      <c r="B27">
+        <v>-0.482254155890251</v>
+      </c>
+      <c r="C27">
+        <v>-1.3722333411743199</v>
+      </c>
+      <c r="D27">
+        <v>-0.47272928033320499</v>
+      </c>
+      <c r="E27">
+        <v>-1.3995022400033701</v>
+      </c>
+      <c r="G27">
+        <v>-8.2966162742510605E-2</v>
+      </c>
+      <c r="H27">
+        <v>-0.298263492702593</v>
+      </c>
+      <c r="I27">
+        <v>-0.407505346584981</v>
+      </c>
+      <c r="J27">
+        <v>-0.276463628129336</v>
+      </c>
+      <c r="K27">
+        <v>-0.797141231252678</v>
+      </c>
+      <c r="M27">
+        <v>-1.0939095222205899</v>
+      </c>
+      <c r="N27">
+        <v>-0.97270674948777602</v>
+      </c>
+      <c r="O27">
+        <v>-1.0043511495480999</v>
+      </c>
+      <c r="P27">
+        <v>-1.1187371593734601</v>
+      </c>
+      <c r="Q27">
+        <v>-1.06524210747306</v>
+      </c>
+      <c r="S27">
+        <v>-0.91217132762090802</v>
+      </c>
+      <c r="T27">
+        <v>-0.32474415028637099</v>
+      </c>
+      <c r="U27">
+        <v>-0.60948744598558602</v>
+      </c>
+      <c r="V27">
+        <v>-7.2665177888259394E-2</v>
+      </c>
+      <c r="W27">
+        <v>-0.75475484202913201</v>
+      </c>
+      <c r="Y27">
+        <v>6.8327196666921899E-2</v>
+      </c>
+      <c r="Z27">
+        <v>-0.39696943549936198</v>
+      </c>
+      <c r="AA27">
+        <v>-0.87172202669759302</v>
+      </c>
+      <c r="AB27">
+        <v>0.12940221342035299</v>
+      </c>
+      <c r="AC27">
+        <v>-0.26988540613304501</v>
+      </c>
+      <c r="AE27">
+        <v>-0.95465841543952201</v>
+      </c>
+      <c r="AF27">
+        <v>-0.297227033366257</v>
+      </c>
+      <c r="AG27">
+        <v>-0.63731478337357295</v>
+      </c>
+      <c r="AH27">
+        <v>-0.32488824980935499</v>
+      </c>
+      <c r="AI27">
+        <v>-0.72292419208716996</v>
+      </c>
+      <c r="AK27">
+        <v>-2.4417234285584E-2</v>
+      </c>
+      <c r="AL27">
+        <v>0.39381538990555598</v>
+      </c>
+      <c r="AM27">
+        <v>0.93730834952230901</v>
+      </c>
+      <c r="AN27">
+        <v>0.75880772961751697</v>
+      </c>
+      <c r="AO27">
+        <v>0.31284947088166798</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>-1.2882403837337499</v>
+      </c>
+      <c r="B28">
+        <v>-0.72236742147062105</v>
+      </c>
+      <c r="C28">
+        <v>-1.2236601664050399</v>
+      </c>
+      <c r="D28">
+        <v>1.23162817722691</v>
+      </c>
+      <c r="E28">
+        <v>1.40989334831253</v>
+      </c>
+      <c r="G28">
+        <v>-0.96403485783610599</v>
+      </c>
+      <c r="H28">
+        <v>-0.50686645726853097</v>
+      </c>
+      <c r="I28">
+        <v>7.8984745474357104E-2</v>
+      </c>
+      <c r="J28">
+        <v>0.22155911512540899</v>
+      </c>
+      <c r="K28">
+        <v>0.596377013592304</v>
+      </c>
+      <c r="M28">
+        <v>-0.77399128444055298</v>
+      </c>
+      <c r="N28">
+        <v>-1.05371723476239</v>
+      </c>
+      <c r="O28">
+        <v>-1.03189526425268</v>
+      </c>
+      <c r="P28">
+        <v>-1.1015649688826401</v>
+      </c>
+      <c r="Q28">
+        <v>-0.80074224744662204</v>
+      </c>
+      <c r="S28">
+        <v>-0.984257667966984</v>
+      </c>
+      <c r="T28">
+        <v>0.107648230235303</v>
+      </c>
+      <c r="U28">
+        <v>0.25268628869409099</v>
+      </c>
+      <c r="V28">
+        <v>0.718160704235703</v>
+      </c>
+      <c r="W28">
+        <v>0.541713846006458</v>
+      </c>
+      <c r="Y28">
+        <v>-1.0683035647389301</v>
+      </c>
+      <c r="Z28">
+        <v>0.36014436457346</v>
+      </c>
+      <c r="AA28">
+        <v>0.479820912491917</v>
+      </c>
+      <c r="AB28">
+        <v>0.43009463584970697</v>
+      </c>
+      <c r="AC28">
+        <v>0.48765256019891801</v>
+      </c>
+      <c r="AE28">
+        <v>-0.84402754642424505</v>
+      </c>
+      <c r="AF28">
+        <v>-0.181828550333966</v>
+      </c>
+      <c r="AG28">
+        <v>-1.01370866174244</v>
+      </c>
+      <c r="AH28">
+        <v>0.70921333672525499</v>
+      </c>
+      <c r="AI28">
+        <v>0.36020609215084898</v>
+      </c>
+      <c r="AK28">
+        <v>0.53755431555080502</v>
+      </c>
+      <c r="AL28">
+        <v>-0.18978428415190501</v>
+      </c>
+      <c r="AM28">
+        <v>0.281768875888115</v>
+      </c>
+      <c r="AN28">
+        <v>0.96291620620305096</v>
+      </c>
+      <c r="AO28">
+        <v>0.54871090374731801</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>-1.34943410016094</v>
+      </c>
+      <c r="B29">
+        <v>-1.34913484251394</v>
+      </c>
+      <c r="C29">
+        <v>-1.4424085140073699</v>
+      </c>
+      <c r="D29">
+        <v>-1.1724789281360699</v>
+      </c>
+      <c r="E29">
+        <v>-1.0774452780852399</v>
+      </c>
+      <c r="G29">
+        <v>-0.65246119782315803</v>
+      </c>
+      <c r="H29">
+        <v>-0.18787642638424501</v>
+      </c>
+      <c r="I29">
+        <v>-0.77463010809134103</v>
+      </c>
+      <c r="J29">
+        <v>-0.61469143293105299</v>
+      </c>
+      <c r="K29">
+        <v>-4.6730185090315202E-3</v>
+      </c>
+      <c r="M29">
+        <v>-0.75924960889211202</v>
+      </c>
+      <c r="N29">
+        <v>-1.07790557221193</v>
+      </c>
+      <c r="O29">
+        <v>-1.0701383016711601</v>
+      </c>
+      <c r="P29">
+        <v>-1.1132166335595099</v>
+      </c>
+      <c r="Q29">
+        <v>-1.0455436661034401</v>
+      </c>
+      <c r="S29">
+        <v>-0.387521562999316</v>
+      </c>
+      <c r="T29">
+        <v>-0.148743710588081</v>
+      </c>
+      <c r="U29">
+        <v>-0.86953353562848901</v>
+      </c>
+      <c r="V29">
+        <v>0.54012536893447305</v>
+      </c>
+      <c r="W29">
+        <v>-0.44036643740409898</v>
+      </c>
+      <c r="Y29">
+        <v>0.175594972027628</v>
+      </c>
+      <c r="Z29">
+        <v>0.37876348530395398</v>
+      </c>
+      <c r="AA29">
+        <v>-0.24710172068255601</v>
+      </c>
+      <c r="AB29">
+        <v>2.16065599194681E-2</v>
+      </c>
+      <c r="AC29">
+        <v>-0.14625097827906799</v>
+      </c>
+      <c r="AE29">
+        <v>-0.309412699832672</v>
+      </c>
+      <c r="AF29">
+        <v>-0.66496761879656596</v>
+      </c>
+      <c r="AG29">
+        <v>-0.86631574749548401</v>
+      </c>
+      <c r="AH29">
+        <v>0.38558911229751403</v>
+      </c>
+      <c r="AI29">
+        <v>-0.661136565023275</v>
+      </c>
+      <c r="AK29">
+        <v>-0.25247522250596599</v>
+      </c>
+      <c r="AL29">
+        <v>0.56590773575594999</v>
+      </c>
+      <c r="AM29">
+        <v>0.25324818490204998</v>
+      </c>
+      <c r="AN29">
+        <v>0.25724667318169803</v>
+      </c>
+      <c r="AO29">
+        <v>0.41427497858294199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>-0.98003818769219597</v>
+      </c>
+      <c r="B30">
+        <v>-1.0673433448806999</v>
+      </c>
+      <c r="C30">
+        <v>-0.99255417468673202</v>
+      </c>
+      <c r="D30">
+        <v>-0.25695800085253301</v>
+      </c>
+      <c r="E30">
+        <v>-0.84335262479120698</v>
+      </c>
+      <c r="G30">
+        <v>0.120539882295658</v>
+      </c>
+      <c r="H30">
+        <v>9.60096929363949E-2</v>
+      </c>
+      <c r="I30">
+        <v>-0.80960254999729597</v>
+      </c>
+      <c r="J30">
+        <v>-0.25523320904751701</v>
+      </c>
+      <c r="K30">
+        <v>-0.15214338508675901</v>
+      </c>
+      <c r="M30">
+        <v>-0.87486750809129399</v>
+      </c>
+      <c r="N30">
+        <v>-1.00802995619207</v>
+      </c>
+      <c r="O30">
+        <v>-0.95354965793500901</v>
+      </c>
+      <c r="P30">
+        <v>-1.0801872420293399</v>
+      </c>
+      <c r="Q30">
+        <v>-1.0365373808024501</v>
+      </c>
+      <c r="S30">
+        <v>-0.31657121690877499</v>
+      </c>
+      <c r="T30">
+        <v>-0.65297792549799905</v>
+      </c>
+      <c r="U30">
+        <v>-1.6819526149113299E-2</v>
+      </c>
+      <c r="V30">
+        <v>-1.01571871449633</v>
+      </c>
+      <c r="W30">
+        <v>-0.657504638576905</v>
+      </c>
+      <c r="Y30">
+        <v>-0.81892554906246895</v>
+      </c>
+      <c r="Z30">
+        <v>-1.042826847363</v>
+      </c>
+      <c r="AA30">
+        <v>-0.84660357253429996</v>
+      </c>
+      <c r="AB30">
+        <v>-6.9604909135107307E-2</v>
+      </c>
+      <c r="AC30">
+        <v>-0.232932508908226</v>
+      </c>
+      <c r="AE30">
+        <v>-0.68219282905766299</v>
+      </c>
+      <c r="AF30">
+        <v>-0.64141016460673395</v>
+      </c>
+      <c r="AG30">
+        <v>-0.25256007159725702</v>
+      </c>
+      <c r="AH30">
+        <v>-0.79645805500021605</v>
+      </c>
+      <c r="AI30">
+        <v>-0.82829134698079299</v>
+      </c>
+      <c r="AK30">
+        <v>-1.19256135470052E-2</v>
+      </c>
+      <c r="AL30">
+        <v>0.82853706982603703</v>
+      </c>
+      <c r="AM30">
+        <v>0.61544202543652904</v>
+      </c>
+      <c r="AN30">
+        <v>0.50122794697059903</v>
+      </c>
+      <c r="AO30">
+        <v>-0.257515484873094</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>-1.3355985726720601</v>
+      </c>
+      <c r="C31">
+        <v>-1.1126777457077299</v>
+      </c>
+      <c r="H31">
+        <v>-1.1520114131017001</v>
+      </c>
+      <c r="I31">
+        <v>-0.60814342254922005</v>
+      </c>
+      <c r="N31">
+        <v>-1.0907858705350599</v>
+      </c>
+      <c r="O31">
+        <v>-1.0606141342686599</v>
+      </c>
+      <c r="T31">
+        <v>-0.96116103334331604</v>
+      </c>
+      <c r="U31">
+        <v>-0.85617843304197905</v>
+      </c>
+      <c r="Z31">
+        <v>-0.69815935717145305</v>
+      </c>
+      <c r="AA31">
+        <v>-0.66881075433562398</v>
+      </c>
+      <c r="AF31">
+        <v>-1.0970003860017601</v>
+      </c>
+      <c r="AG31">
+        <v>-0.91823239527410305</v>
+      </c>
+      <c r="AL31">
+        <v>0.14584936249147501</v>
+      </c>
+      <c r="AM31">
+        <v>0.44816943956462402</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>-1.0206340184598801</v>
+      </c>
+      <c r="C32">
+        <v>-1.26239925750057</v>
+      </c>
+      <c r="H32">
+        <v>5.0685651206335801E-2</v>
+      </c>
+      <c r="I32">
+        <v>-0.52393486912768406</v>
+      </c>
+      <c r="N32">
+        <v>-0.95660199428251502</v>
+      </c>
+      <c r="O32">
+        <v>-1.07860183047448</v>
+      </c>
+      <c r="T32">
+        <v>-0.20410626395148401</v>
+      </c>
+      <c r="U32">
+        <v>0.39252449280158702</v>
+      </c>
+      <c r="Z32">
+        <v>6.2358404279173898E-2</v>
+      </c>
+      <c r="AA32">
+        <v>-0.65071469834465201</v>
+      </c>
+      <c r="AF32">
+        <v>-0.31553792215535398</v>
+      </c>
+      <c r="AG32">
+        <v>0.46182786591768799</v>
+      </c>
+      <c r="AL32">
+        <v>-0.31832572683766203</v>
+      </c>
+      <c r="AM32">
+        <v>-0.36952323236206402</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="Y1:AC1"/>
+    <mergeCell ref="AE1:AI1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90FC3682-12E5-4BAC-81A0-F9C34F626791}">
+  <dimension ref="A1:AC29"/>
+  <sheetViews>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AB14" sqref="AB14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -26572,8 +29884,32 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="P1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="U1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Z1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.86666666666666703</v>
       </c>
@@ -26598,8 +29934,56 @@
       <c r="I2">
         <v>0.68303037985848902</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K2">
+        <v>1.5384615384615401</v>
+      </c>
+      <c r="L2">
+        <v>1.94444444444444</v>
+      </c>
+      <c r="M2">
+        <v>1.92307692307692</v>
+      </c>
+      <c r="N2">
+        <v>2.7777777777777799</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>2.4166666666666701</v>
+      </c>
+      <c r="R2">
+        <v>2.8823529411764701</v>
+      </c>
+      <c r="S2">
+        <v>2.7619047619047601</v>
+      </c>
+      <c r="U2">
+        <v>0.53019642831574099</v>
+      </c>
+      <c r="V2">
+        <v>0.59295605653702899</v>
+      </c>
+      <c r="W2">
+        <v>0.69089174139214904</v>
+      </c>
+      <c r="X2">
+        <v>0.69630610596828402</v>
+      </c>
+      <c r="Z2">
+        <v>0.90546001379698304</v>
+      </c>
+      <c r="AA2">
+        <v>0.81318470856300895</v>
+      </c>
+      <c r="AB2">
+        <v>0.621831439800136</v>
+      </c>
+      <c r="AC2">
+        <v>0.67734078295429101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -26624,8 +30008,56 @@
       <c r="I3">
         <v>0.91602238027359495</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1.4666666666666699</v>
+      </c>
+      <c r="M3">
+        <v>2.7272727272727302</v>
+      </c>
+      <c r="N3">
+        <v>3.4615384615384599</v>
+      </c>
+      <c r="P3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>71</v>
+      </c>
+      <c r="R3">
+        <v>3.625</v>
+      </c>
+      <c r="S3">
+        <v>3.7058823529411802</v>
+      </c>
+      <c r="U3">
+        <v>0.74208653965712701</v>
+      </c>
+      <c r="V3">
+        <v>0.78383933612882795</v>
+      </c>
+      <c r="W3">
+        <v>0.83343479707466706</v>
+      </c>
+      <c r="X3">
+        <v>0.87239823199119104</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB3">
+        <v>1.12586605021716</v>
+      </c>
+      <c r="AC3">
+        <v>0.94938202307778696</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.93333333333333302</v>
       </c>
@@ -26650,8 +30082,56 @@
       <c r="I4">
         <v>0.77402677225021299</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K4">
+        <v>1.28571428571429</v>
+      </c>
+      <c r="L4">
+        <v>1.625</v>
+      </c>
+      <c r="M4">
+        <v>2.38095238095238</v>
+      </c>
+      <c r="N4">
+        <v>2.2727272727272698</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>3.8</v>
+      </c>
+      <c r="R4">
+        <v>3.5555555555555598</v>
+      </c>
+      <c r="S4">
+        <v>3.3888888888888902</v>
+      </c>
+      <c r="U4">
+        <v>0.49285709296288699</v>
+      </c>
+      <c r="V4">
+        <v>0.57581409580294995</v>
+      </c>
+      <c r="W4">
+        <v>0.62670406837908899</v>
+      </c>
+      <c r="X4">
+        <v>0.67080061704142602</v>
+      </c>
+      <c r="Z4">
+        <v>0.50961348625423897</v>
+      </c>
+      <c r="AA4">
+        <v>1.0294418389559701</v>
+      </c>
+      <c r="AB4">
+        <v>0.98587293239446205</v>
+      </c>
+      <c r="AC4">
+        <v>0.83710942265558197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -26676,8 +30156,56 @@
       <c r="I5">
         <v>0.72803379051941297</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K5">
+        <v>1.4827586206896599</v>
+      </c>
+      <c r="L5">
+        <v>2.1428571428571401</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>3.75</v>
+      </c>
+      <c r="P5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q5">
+        <v>3.5</v>
+      </c>
+      <c r="R5">
+        <v>3.6</v>
+      </c>
+      <c r="S5">
+        <v>3.24</v>
+      </c>
+      <c r="U5">
+        <v>0.68515045596246504</v>
+      </c>
+      <c r="V5">
+        <v>0.64404217073544201</v>
+      </c>
+      <c r="W5">
+        <v>0.87339033656365594</v>
+      </c>
+      <c r="X5">
+        <v>0.66487621924898099</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA5">
+        <v>0.60800980543717698</v>
+      </c>
+      <c r="AB5">
+        <v>1.1046901580373101</v>
+      </c>
+      <c r="AC5">
+        <v>0.738139001922682</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.96666666666666701</v>
       </c>
@@ -26702,8 +30230,56 @@
       <c r="I6">
         <v>0.66405628919440896</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K6">
+        <v>1.0689655172413799</v>
+      </c>
+      <c r="L6">
+        <v>1.56</v>
+      </c>
+      <c r="M6">
+        <v>2.0909090909090899</v>
+      </c>
+      <c r="N6">
+        <v>2.6666666666666701</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>2.5</v>
+      </c>
+      <c r="R6">
+        <v>2.7368421052631602</v>
+      </c>
+      <c r="S6">
+        <v>2.6153846153846199</v>
+      </c>
+      <c r="U6">
+        <v>0.48620862233179502</v>
+      </c>
+      <c r="V6">
+        <v>0.50687556964112501</v>
+      </c>
+      <c r="W6">
+        <v>0.61311832672535405</v>
+      </c>
+      <c r="X6">
+        <v>0.68891524003508198</v>
+      </c>
+      <c r="Z6">
+        <v>0.80974327813601099</v>
+      </c>
+      <c r="AA6">
+        <v>0.74555818414955899</v>
+      </c>
+      <c r="AB6">
+        <v>0.79388377900345597</v>
+      </c>
+      <c r="AC6">
+        <v>0.66118794871279296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -26728,8 +30304,56 @@
       <c r="I7">
         <v>0.84119454681252404</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K7">
+        <v>1.2666666666666699</v>
+      </c>
+      <c r="L7">
+        <v>1.9130434782608701</v>
+      </c>
+      <c r="M7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N7">
+        <v>2.4</v>
+      </c>
+      <c r="P7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7">
+        <v>2.1666666666666701</v>
+      </c>
+      <c r="R7">
+        <v>2.2666666666666702</v>
+      </c>
+      <c r="S7">
+        <v>2.1</v>
+      </c>
+      <c r="U7">
+        <v>0.61793086548180598</v>
+      </c>
+      <c r="V7">
+        <v>0.65082218895828303</v>
+      </c>
+      <c r="W7">
+        <v>0.77043261692936804</v>
+      </c>
+      <c r="X7">
+        <v>0.95497864818899003</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA7">
+        <v>0.80567151003439597</v>
+      </c>
+      <c r="AB7">
+        <v>0.79385711885212595</v>
+      </c>
+      <c r="AC7">
+        <v>0.78430249612429204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.93333333333333302</v>
       </c>
@@ -26754,8 +30378,56 @@
       <c r="I8">
         <v>0.77874695102121505</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K8">
+        <v>1.3571428571428601</v>
+      </c>
+      <c r="L8">
+        <v>2.0869565217391299</v>
+      </c>
+      <c r="M8">
+        <v>2.8461538461538498</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <v>4</v>
+      </c>
+      <c r="Q8">
+        <v>3.1428571428571401</v>
+      </c>
+      <c r="R8">
+        <v>3.1176470588235299</v>
+      </c>
+      <c r="S8">
+        <v>2.9615384615384599</v>
+      </c>
+      <c r="U8">
+        <v>0.50466347749898</v>
+      </c>
+      <c r="V8">
+        <v>0.58457982650408802</v>
+      </c>
+      <c r="W8">
+        <v>0.72860147781634299</v>
+      </c>
+      <c r="X8">
+        <v>0.626876578189695</v>
+      </c>
+      <c r="Z8">
+        <v>1.48071827568492</v>
+      </c>
+      <c r="AA8">
+        <v>0.81508883695641998</v>
+      </c>
+      <c r="AB8">
+        <v>0.83256261275913401</v>
+      </c>
+      <c r="AC8">
+        <v>0.80211162376452605</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -26780,8 +30452,56 @@
       <c r="I9">
         <v>0.79941769622576697</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K9">
+        <v>1.2</v>
+      </c>
+      <c r="L9">
+        <v>2.1904761904761898</v>
+      </c>
+      <c r="M9">
+        <v>2.9444444444444402</v>
+      </c>
+      <c r="N9">
+        <v>2.8333333333333299</v>
+      </c>
+      <c r="P9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>3.0833333333333299</v>
+      </c>
+      <c r="S9">
+        <v>3</v>
+      </c>
+      <c r="U9">
+        <v>0.46713397565763398</v>
+      </c>
+      <c r="V9">
+        <v>0.640248812890301</v>
+      </c>
+      <c r="W9">
+        <v>0.77527868010414203</v>
+      </c>
+      <c r="X9">
+        <v>0.71234915911918495</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA9">
+        <v>0.94630418076283396</v>
+      </c>
+      <c r="AB9">
+        <v>0.83291377808200195</v>
+      </c>
+      <c r="AC9">
+        <v>0.85746338763015595</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.76666666666666705</v>
       </c>
@@ -26806,8 +30526,56 @@
       <c r="I10">
         <v>1.0989726645173501</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K10">
+        <v>1.5652173913043499</v>
+      </c>
+      <c r="L10">
+        <v>2.5882352941176499</v>
+      </c>
+      <c r="M10">
+        <v>3.5555555555555598</v>
+      </c>
+      <c r="N10">
+        <v>3.8</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <v>3.8461538461538498</v>
+      </c>
+      <c r="R10">
+        <v>3.6315789473684199</v>
+      </c>
+      <c r="S10">
+        <v>3.55</v>
+      </c>
+      <c r="U10">
+        <v>0.54847240412061105</v>
+      </c>
+      <c r="V10">
+        <v>0.74075007472899501</v>
+      </c>
+      <c r="W10">
+        <v>0.93676734851517995</v>
+      </c>
+      <c r="X10">
+        <v>1.1882932246662701</v>
+      </c>
+      <c r="Z10">
+        <v>0.75706169094025599</v>
+      </c>
+      <c r="AA10">
+        <v>0.99303966143634204</v>
+      </c>
+      <c r="AB10">
+        <v>1.04621938711008</v>
+      </c>
+      <c r="AC10">
+        <v>1.0543123844428901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.96666666666666701</v>
       </c>
@@ -26832,8 +30600,56 @@
       <c r="I11">
         <v>0.80872849522469004</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1.53571428571429</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>2.6923076923076898</v>
+      </c>
+      <c r="P11">
+        <v>4</v>
+      </c>
+      <c r="Q11">
+        <v>1.5</v>
+      </c>
+      <c r="R11">
+        <v>2.8461538461538498</v>
+      </c>
+      <c r="S11">
+        <v>2.6470588235294099</v>
+      </c>
+      <c r="U11">
+        <v>0.56862682271106502</v>
+      </c>
+      <c r="V11">
+        <v>0.66344120543050999</v>
+      </c>
+      <c r="W11">
+        <v>0.76739561661858802</v>
+      </c>
+      <c r="X11">
+        <v>0.87323212443600196</v>
+      </c>
+      <c r="Z11">
+        <v>0.85809822590090301</v>
+      </c>
+      <c r="AA11">
+        <v>0.543887740874197</v>
+      </c>
+      <c r="AB11">
+        <v>0.81986979170380003</v>
+      </c>
+      <c r="AC11">
+        <v>0.75940219053368596</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.9</v>
       </c>
@@ -26858,8 +30674,56 @@
       <c r="I12">
         <v>0.61770611324851998</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K12">
+        <v>1.25925925925926</v>
+      </c>
+      <c r="L12">
+        <v>2.0689655172413799</v>
+      </c>
+      <c r="M12">
+        <v>3.1739130434782599</v>
+      </c>
+      <c r="N12">
+        <v>3.5714285714285698</v>
+      </c>
+      <c r="P12">
+        <v>4</v>
+      </c>
+      <c r="Q12">
+        <v>4</v>
+      </c>
+      <c r="R12">
+        <v>3.71428571428571</v>
+      </c>
+      <c r="S12">
+        <v>3.5652173913043499</v>
+      </c>
+      <c r="U12">
+        <v>0.59937030477535502</v>
+      </c>
+      <c r="V12">
+        <v>0.57246250894817896</v>
+      </c>
+      <c r="W12">
+        <v>0.69251943684344996</v>
+      </c>
+      <c r="X12">
+        <v>0.64992003220166805</v>
+      </c>
+      <c r="Z12">
+        <v>0.60909235244616899</v>
+      </c>
+      <c r="AA12">
+        <v>0.73579599417280395</v>
+      </c>
+      <c r="AB12">
+        <v>0.72275006941137199</v>
+      </c>
+      <c r="AC12">
+        <v>0.60790187704538901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.96666666666666701</v>
       </c>
@@ -26884,8 +30748,56 @@
       <c r="I13">
         <v>0.79563716744062996</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K13">
+        <v>1.5172413793103401</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>2.1333333333333302</v>
+      </c>
+      <c r="N13">
+        <v>3.1</v>
+      </c>
+      <c r="P13">
+        <v>3</v>
+      </c>
+      <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="R13">
+        <v>3.3333333333333299</v>
+      </c>
+      <c r="S13">
+        <v>3</v>
+      </c>
+      <c r="U13">
+        <v>0.45947428222480702</v>
+      </c>
+      <c r="V13">
+        <v>0.58767677443174804</v>
+      </c>
+      <c r="W13">
+        <v>0.72027431942891196</v>
+      </c>
+      <c r="X13">
+        <v>0.75219780602783404</v>
+      </c>
+      <c r="Z13">
+        <v>1.3921531865344201</v>
+      </c>
+      <c r="AA13">
+        <v>0.749885271747189</v>
+      </c>
+      <c r="AB13">
+        <v>0.91900408300668202</v>
+      </c>
+      <c r="AC13">
+        <v>0.81735684814702803</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -26910,8 +30822,56 @@
       <c r="I14">
         <v>0.66319324586947903</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K14">
+        <v>1.4666666666666699</v>
+      </c>
+      <c r="L14">
+        <v>2.7826086956521698</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <v>3.25</v>
+      </c>
+      <c r="P14" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q14">
+        <v>3.8571428571428599</v>
+      </c>
+      <c r="R14">
+        <v>3.4666666666666699</v>
+      </c>
+      <c r="S14">
+        <v>3.5</v>
+      </c>
+      <c r="U14">
+        <v>0.52441775408515301</v>
+      </c>
+      <c r="V14">
+        <v>0.64098376379242095</v>
+      </c>
+      <c r="W14">
+        <v>0.73915216171687204</v>
+      </c>
+      <c r="X14">
+        <v>0.66396936862778</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA14">
+        <v>0.70857682286129697</v>
+      </c>
+      <c r="AB14">
+        <v>0.71222600523421198</v>
+      </c>
+      <c r="AC14">
+        <v>0.66267583069727898</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.93333333333333302</v>
       </c>
@@ -26936,8 +30896,56 @@
       <c r="I15">
         <v>0.72551974564477595</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K15">
+        <v>1.1071428571428601</v>
+      </c>
+      <c r="L15">
+        <v>1.8181818181818199</v>
+      </c>
+      <c r="M15">
+        <v>2.6315789473684199</v>
+      </c>
+      <c r="N15">
+        <v>2.75</v>
+      </c>
+      <c r="P15">
+        <v>3.5</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <v>3.2727272727272698</v>
+      </c>
+      <c r="S15">
+        <v>3</v>
+      </c>
+      <c r="U15">
+        <v>0.56352825666129203</v>
+      </c>
+      <c r="V15">
+        <v>0.530577032599302</v>
+      </c>
+      <c r="W15">
+        <v>0.63374402617275905</v>
+      </c>
+      <c r="X15">
+        <v>0.80414759592531504</v>
+      </c>
+      <c r="Z15">
+        <v>0.75620606384472899</v>
+      </c>
+      <c r="AA15">
+        <v>0.82416002007084899</v>
+      </c>
+      <c r="AB15">
+        <v>0.83708777454872196</v>
+      </c>
+      <c r="AC15">
+        <v>0.69556627887123801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -26962,8 +30970,56 @@
       <c r="I16">
         <v>0.71860561602391404</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>2.65</v>
+      </c>
+      <c r="M16">
+        <v>3.1176470588235299</v>
+      </c>
+      <c r="N16">
+        <v>3.5555555555555598</v>
+      </c>
+      <c r="P16" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q16">
+        <v>3.8333333333333299</v>
+      </c>
+      <c r="R16">
+        <v>3.8461538461538498</v>
+      </c>
+      <c r="S16">
+        <v>3.7894736842105301</v>
+      </c>
+      <c r="U16">
+        <v>0.52861011719602802</v>
+      </c>
+      <c r="V16">
+        <v>0.48410376690444501</v>
+      </c>
+      <c r="W16">
+        <v>0.676037304647787</v>
+      </c>
+      <c r="X16">
+        <v>0.60672322613471696</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA16">
+        <v>0.70172368789402195</v>
+      </c>
+      <c r="AB16">
+        <v>0.831608988823763</v>
+      </c>
+      <c r="AC16">
+        <v>0.771602537550375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.82758620689655205</v>
       </c>
@@ -26988,8 +31044,56 @@
       <c r="I17">
         <v>1.0763887312631899</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K17">
+        <v>1.0833333333333299</v>
+      </c>
+      <c r="L17">
+        <v>1.31578947368421</v>
+      </c>
+      <c r="M17">
+        <v>2.06666666666667</v>
+      </c>
+      <c r="N17">
+        <v>2.5</v>
+      </c>
+      <c r="P17">
+        <v>2</v>
+      </c>
+      <c r="Q17">
+        <v>2.7</v>
+      </c>
+      <c r="R17">
+        <v>2.3076923076923102</v>
+      </c>
+      <c r="S17">
+        <v>2.7</v>
+      </c>
+      <c r="U17">
+        <v>0.72709636623767404</v>
+      </c>
+      <c r="V17">
+        <v>0.69961450274384196</v>
+      </c>
+      <c r="W17">
+        <v>1.01894108321285</v>
+      </c>
+      <c r="X17">
+        <v>1.0320740221533899</v>
+      </c>
+      <c r="Z17">
+        <v>0.83145438276697003</v>
+      </c>
+      <c r="AA17">
+        <v>1.22914992725709</v>
+      </c>
+      <c r="AB17">
+        <v>1.03111858432217</v>
+      </c>
+      <c r="AC17">
+        <v>1.09854608581809</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.89655172413793105</v>
       </c>
@@ -27014,8 +31118,56 @@
       <c r="I18">
         <v>1.26797859053176</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1.1176470588235301</v>
+      </c>
+      <c r="M18">
+        <v>1.21428571428571</v>
+      </c>
+      <c r="N18">
+        <v>1.8333333333333299</v>
+      </c>
+      <c r="P18">
+        <v>1.6666666666666701</v>
+      </c>
+      <c r="Q18">
+        <v>1.75</v>
+      </c>
+      <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18">
+        <v>1.8260869565217399</v>
+      </c>
+      <c r="U18">
+        <v>0.71975836181305697</v>
+      </c>
+      <c r="V18">
+        <v>1.0124508323291701</v>
+      </c>
+      <c r="W18">
+        <v>0.98842158196410801</v>
+      </c>
+      <c r="X18">
+        <v>1.25162321193299</v>
+      </c>
+      <c r="Z18">
+        <v>1.11785633623367</v>
+      </c>
+      <c r="AA18">
+        <v>1.26395889466949</v>
+      </c>
+      <c r="AB18">
+        <v>1.21107007622217</v>
+      </c>
+      <c r="AC18">
+        <v>1.27224521103578</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -27040,8 +31192,56 @@
       <c r="I19">
         <v>0.84310942374480302</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K19">
+        <v>1.56666666666667</v>
+      </c>
+      <c r="L19">
+        <v>2.1481481481481501</v>
+      </c>
+      <c r="M19">
+        <v>2.3571428571428599</v>
+      </c>
+      <c r="N19">
+        <v>2.625</v>
+      </c>
+      <c r="P19" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q19">
+        <v>3</v>
+      </c>
+      <c r="R19">
+        <v>2.75</v>
+      </c>
+      <c r="S19">
+        <v>2.9545454545454501</v>
+      </c>
+      <c r="U19">
+        <v>0.77715031102610099</v>
+      </c>
+      <c r="V19">
+        <v>0.75898203542628495</v>
+      </c>
+      <c r="W19">
+        <v>0.79725800946887104</v>
+      </c>
+      <c r="X19">
+        <v>0.72274636977817897</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA19">
+        <v>0.57666002570961905</v>
+      </c>
+      <c r="AB19">
+        <v>0.89440982410451397</v>
+      </c>
+      <c r="AC19">
+        <v>0.88687780700539298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.89655172413793105</v>
       </c>
@@ -27066,8 +31266,56 @@
       <c r="I20">
         <v>0.60626102430331996</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1.42105263157895</v>
+      </c>
+      <c r="M20">
+        <v>1.2307692307692299</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="P20">
+        <v>1.6666666666666701</v>
+      </c>
+      <c r="Q20">
+        <v>2.4</v>
+      </c>
+      <c r="R20">
+        <v>2.1764705882352899</v>
+      </c>
+      <c r="S20">
+        <v>2.1428571428571401</v>
+      </c>
+      <c r="U20">
+        <v>0.60601247665740998</v>
+      </c>
+      <c r="V20">
+        <v>0.64542139604332305</v>
+      </c>
+      <c r="W20">
+        <v>0.59544201807763697</v>
+      </c>
+      <c r="X20">
+        <v>0.55295559391379401</v>
+      </c>
+      <c r="Z20">
+        <v>1.3529043528057301</v>
+      </c>
+      <c r="AA20">
+        <v>0.81620643815840599</v>
+      </c>
+      <c r="AB20">
+        <v>0.674074072442154</v>
+      </c>
+      <c r="AC20">
+        <v>0.62149114727175703</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -27092,8 +31340,56 @@
       <c r="I21">
         <v>1.0555837490848099</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1.5</v>
+      </c>
+      <c r="M21">
+        <v>2.15</v>
+      </c>
+      <c r="N21">
+        <v>2.25</v>
+      </c>
+      <c r="P21" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>71</v>
+      </c>
+      <c r="R21">
+        <v>3.1</v>
+      </c>
+      <c r="S21">
+        <v>2.4090909090909101</v>
+      </c>
+      <c r="U21">
+        <v>0.65398708677967099</v>
+      </c>
+      <c r="V21">
+        <v>0.78428964031433401</v>
+      </c>
+      <c r="W21">
+        <v>0.89587538138439404</v>
+      </c>
+      <c r="X21">
+        <v>1.1108302832799399</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB21">
+        <v>1.0200257642136401</v>
+      </c>
+      <c r="AC21">
+        <v>1.0354941002865801</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -27118,8 +31414,56 @@
       <c r="I22">
         <v>0.50275235657075701</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1.13333333333333</v>
+      </c>
+      <c r="M22">
+        <v>1.4736842105263199</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
+      </c>
+      <c r="P22" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>71</v>
+      </c>
+      <c r="R22">
+        <v>1.8181818181818199</v>
+      </c>
+      <c r="S22">
+        <v>2.5454545454545499</v>
+      </c>
+      <c r="U22">
+        <v>0.38548990846999598</v>
+      </c>
+      <c r="V22">
+        <v>0.36562402765266599</v>
+      </c>
+      <c r="W22">
+        <v>0.41148339085415703</v>
+      </c>
+      <c r="X22">
+        <v>0.41394075300195299</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB22">
+        <v>0.56404683375942799</v>
+      </c>
+      <c r="AC22">
+        <v>0.53504748514123202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -27144,8 +31488,56 @@
       <c r="I23">
         <v>0.72742372970819402</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L23">
+        <v>1.75</v>
+      </c>
+      <c r="M23">
+        <v>2.4375</v>
+      </c>
+      <c r="N23">
+        <v>3.2307692307692299</v>
+      </c>
+      <c r="P23" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q23">
+        <v>3.5</v>
+      </c>
+      <c r="R23">
+        <v>3.2307692307692299</v>
+      </c>
+      <c r="S23">
+        <v>3.3125</v>
+      </c>
+      <c r="U23">
+        <v>0.44448745990133198</v>
+      </c>
+      <c r="V23">
+        <v>0.51737073326755001</v>
+      </c>
+      <c r="W23">
+        <v>0.60308415411782301</v>
+      </c>
+      <c r="X23">
+        <v>0.73239362867584901</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA23">
+        <v>0.86545687134882099</v>
+      </c>
+      <c r="AB23">
+        <v>0.74977031910272596</v>
+      </c>
+      <c r="AC23">
+        <v>0.72338568679697401</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0.96666666666666701</v>
       </c>
@@ -27170,8 +31562,56 @@
       <c r="I24">
         <v>0.90347047389174495</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K24">
+        <v>1.1034482758620701</v>
+      </c>
+      <c r="L24">
+        <v>2.625</v>
+      </c>
+      <c r="M24">
+        <v>2.8571428571428599</v>
+      </c>
+      <c r="N24">
+        <v>2.8</v>
+      </c>
+      <c r="P24">
+        <v>4</v>
+      </c>
+      <c r="Q24">
+        <v>3.2307692307692299</v>
+      </c>
+      <c r="R24">
+        <v>3</v>
+      </c>
+      <c r="S24">
+        <v>3.05</v>
+      </c>
+      <c r="U24">
+        <v>0.68711470366969496</v>
+      </c>
+      <c r="V24">
+        <v>0.84550822082383104</v>
+      </c>
+      <c r="W24">
+        <v>0.93114194124271799</v>
+      </c>
+      <c r="X24">
+        <v>0.96884629300329805</v>
+      </c>
+      <c r="Z24">
+        <v>1.33055174094625</v>
+      </c>
+      <c r="AA24">
+        <v>0.94663478219165298</v>
+      </c>
+      <c r="AB24">
+        <v>1.01552943844581</v>
+      </c>
+      <c r="AC24">
+        <v>0.87078256433596801</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0.96666666666666701</v>
       </c>
@@ -27196,8 +31636,56 @@
       <c r="I25">
         <v>1.0901627424531299</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>2.375</v>
+      </c>
+      <c r="M25">
+        <v>2.4285714285714302</v>
+      </c>
+      <c r="N25">
+        <v>3.2</v>
+      </c>
+      <c r="P25">
+        <v>4</v>
+      </c>
+      <c r="Q25">
+        <v>3.21428571428571</v>
+      </c>
+      <c r="R25">
+        <v>3.0625</v>
+      </c>
+      <c r="S25">
+        <v>3.125</v>
+      </c>
+      <c r="U25">
+        <v>0.71962308190795099</v>
+      </c>
+      <c r="V25">
+        <v>0.91654477098200005</v>
+      </c>
+      <c r="W25">
+        <v>1.0399583572954201</v>
+      </c>
+      <c r="X25">
+        <v>1.09388441876508</v>
+      </c>
+      <c r="Z25">
+        <v>0.93995995749719397</v>
+      </c>
+      <c r="AA25">
+        <v>1.05435480212327</v>
+      </c>
+      <c r="AB25">
+        <v>1.1071883309196</v>
+      </c>
+      <c r="AC25">
+        <v>1.0878366947581499</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -27222,8 +31710,56 @@
       <c r="I26">
         <v>0.68166460360710801</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1.75</v>
+      </c>
+      <c r="M26">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N26">
+        <v>3</v>
+      </c>
+      <c r="P26" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q26">
+        <v>3.5</v>
+      </c>
+      <c r="R26">
+        <v>3</v>
+      </c>
+      <c r="S26">
+        <v>3.2777777777777799</v>
+      </c>
+      <c r="U26">
+        <v>0.28406536305944102</v>
+      </c>
+      <c r="V26">
+        <v>0.43199771123805197</v>
+      </c>
+      <c r="W26">
+        <v>0.389879105426371</v>
+      </c>
+      <c r="X26">
+        <v>0.60784567403607104</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA26">
+        <v>1.27097603632137</v>
+      </c>
+      <c r="AB26">
+        <v>0.74831934049725501</v>
+      </c>
+      <c r="AC26">
+        <v>0.73087722332113303</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0.96666666666666701</v>
       </c>
@@ -27248,8 +31784,56 @@
       <c r="I27">
         <v>0.81089872329806301</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K27">
+        <v>1.0344827586206899</v>
+      </c>
+      <c r="L27">
+        <v>2.9629629629629601</v>
+      </c>
+      <c r="M27">
+        <v>3.2352941176470602</v>
+      </c>
+      <c r="N27">
+        <v>3.5</v>
+      </c>
+      <c r="P27">
+        <v>4</v>
+      </c>
+      <c r="Q27">
+        <v>3</v>
+      </c>
+      <c r="R27">
+        <v>3.5384615384615401</v>
+      </c>
+      <c r="S27">
+        <v>3.7307692307692299</v>
+      </c>
+      <c r="U27">
+        <v>0.44565102743819901</v>
+      </c>
+      <c r="V27">
+        <v>0.69192319584113604</v>
+      </c>
+      <c r="W27">
+        <v>0.7247871208169</v>
+      </c>
+      <c r="X27">
+        <v>0.656202047830448</v>
+      </c>
+      <c r="Z27">
+        <v>0.52119122538715601</v>
+      </c>
+      <c r="AA27">
+        <v>0.86176770552992799</v>
+      </c>
+      <c r="AB27">
+        <v>0.735460653184698</v>
+      </c>
+      <c r="AC27">
+        <v>0.83469821183154203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -27274,8 +31858,56 @@
       <c r="I28">
         <v>0.70038560448932297</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K28">
+        <v>1.2666666666666699</v>
+      </c>
+      <c r="L28">
+        <v>2.5454545454545499</v>
+      </c>
+      <c r="M28">
+        <v>2.95</v>
+      </c>
+      <c r="N28">
+        <v>3.1818181818181799</v>
+      </c>
+      <c r="P28" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q28">
+        <v>3.375</v>
+      </c>
+      <c r="R28">
+        <v>3.1</v>
+      </c>
+      <c r="S28">
+        <v>3.4736842105263199</v>
+      </c>
+      <c r="U28">
+        <v>0.51914880866242996</v>
+      </c>
+      <c r="V28">
+        <v>0.63273387064360898</v>
+      </c>
+      <c r="W28">
+        <v>0.65040584379821698</v>
+      </c>
+      <c r="X28">
+        <v>0.70337634831164197</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA28">
+        <v>0.80321776807613798</v>
+      </c>
+      <c r="AB28">
+        <v>0.62695070505578798</v>
+      </c>
+      <c r="AC28">
+        <v>0.69865412122377002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -27300,11 +31932,63 @@
       <c r="I29">
         <v>0.81709811046409098</v>
       </c>
+      <c r="K29">
+        <v>1.2413793103448301</v>
+      </c>
+      <c r="L29">
+        <v>2.1428571428571401</v>
+      </c>
+      <c r="M29">
+        <v>1.70588235294118</v>
+      </c>
+      <c r="N29">
+        <v>2.5833333333333299</v>
+      </c>
+      <c r="P29" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q29">
+        <v>2.5555555555555598</v>
+      </c>
+      <c r="R29">
+        <v>2.4615384615384599</v>
+      </c>
+      <c r="S29">
+        <v>2.1111111111111098</v>
+      </c>
+      <c r="U29">
+        <v>0.50743744122055101</v>
+      </c>
+      <c r="V29">
+        <v>0.70474356000860505</v>
+      </c>
+      <c r="W29">
+        <v>0.62597460817008099</v>
+      </c>
+      <c r="X29">
+        <v>0.85288046746912505</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA29">
+        <v>0.98816054916824203</v>
+      </c>
+      <c r="AB29">
+        <v>0.70053786919743299</v>
+      </c>
+      <c r="AC29">
+        <v>0.79324320579406904</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="U1:X1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27312,7 +31996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B94B40-9F6A-46B8-950F-425C487038E9}">
   <dimension ref="A1:W32"/>
   <sheetViews>
@@ -29214,7 +33898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{342EAB9D-B5E6-4C10-B691-71473B67EFEC}">
   <dimension ref="A1:W32"/>
   <sheetViews>
@@ -31117,11 +35801,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE73E88-55DC-414F-AA21-60B56C05D2DC}">
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
@@ -35452,7 +40136,7 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -38904,7 +43588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD33ABF-5618-4769-9282-231162ADFEC3}">
   <dimension ref="A1:AR32"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AC33" sqref="AC33"/>
     </sheetView>
   </sheetViews>
